--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A7874-5CDF-41B8-A8DC-0C4AD35A4DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A86B4CE-6E2A-42DC-B8FD-C8D3060A4BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37230" windowHeight="19020" firstSheet="6" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="7830" yWindow="1575" windowWidth="20685" windowHeight="19005" firstSheet="7" activeTab="7" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="603">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -2216,12 +2216,6 @@
     <t>Это Вкл</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[48]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[49]&gt;</t>
-  </si>
-  <si>
     <t>К кому устр. и групп я подкл.</t>
   </si>
   <si>
@@ -2589,6 +2583,21 @@
   </si>
   <si>
     <t>КОД ДЛЯ СВЯЗКИ ДАННЫХ</t>
+  </si>
+  <si>
+    <t>Я разрыв</t>
+  </si>
+  <si>
+    <t>Имя разрыва</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[RiserName] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[53]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[52]&gt;</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3955,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4169,7 +4178,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4627,6 +4635,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4685,58 +4699,126 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4746,97 +4828,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5812,84 +5829,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="231"/>
-      <c r="F3" s="226" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="232"/>
+      <c r="F3" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="227"/>
-      <c r="H3" s="228"/>
-      <c r="K3" s="224" t="s">
+      <c r="G3" s="228"/>
+      <c r="H3" s="229"/>
+      <c r="K3" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="225"/>
-      <c r="M3" s="225"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="225"/>
-      <c r="AD3" s="225"/>
-      <c r="AE3" s="225"/>
-      <c r="AF3" s="225"/>
-      <c r="AG3" s="225"/>
-      <c r="AH3" s="225"/>
-      <c r="AI3" s="225"/>
-      <c r="AJ3" s="225"/>
-      <c r="AK3" s="225"/>
-      <c r="AL3" s="225"/>
-      <c r="AM3" s="225"/>
-      <c r="AN3" s="225"/>
-      <c r="AO3" s="225"/>
-      <c r="AP3" s="225"/>
-      <c r="AQ3" s="225"/>
-      <c r="AR3" s="225"/>
-      <c r="AS3" s="225"/>
-      <c r="AT3" s="225"/>
-      <c r="AU3" s="225"/>
-      <c r="AV3" s="225"/>
-      <c r="AW3" s="225"/>
-      <c r="AX3" s="225"/>
-      <c r="AY3" s="225"/>
-      <c r="AZ3" s="225"/>
-      <c r="BA3" s="225"/>
-      <c r="BB3" s="225"/>
-      <c r="BC3" s="225"/>
-      <c r="BD3" s="225"/>
-      <c r="BE3" s="225"/>
-      <c r="BF3" s="225"/>
-      <c r="BG3" s="225"/>
-      <c r="BH3" s="225"/>
-      <c r="BI3" s="225"/>
-      <c r="BJ3" s="225"/>
-      <c r="BK3" s="225"/>
-      <c r="BL3" s="225"/>
-      <c r="BM3" s="225"/>
-      <c r="BN3" s="225"/>
-      <c r="BO3" s="225"/>
-      <c r="BP3" s="225"/>
-      <c r="BQ3" s="225"/>
-      <c r="BR3" s="225"/>
-      <c r="BS3" s="225"/>
-      <c r="BT3" s="225"/>
-      <c r="BU3" s="225"/>
-      <c r="BV3" s="225"/>
-      <c r="BW3" s="225"/>
-      <c r="BX3" s="225"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="226"/>
+      <c r="AN3" s="226"/>
+      <c r="AO3" s="226"/>
+      <c r="AP3" s="226"/>
+      <c r="AQ3" s="226"/>
+      <c r="AR3" s="226"/>
+      <c r="AS3" s="226"/>
+      <c r="AT3" s="226"/>
+      <c r="AU3" s="226"/>
+      <c r="AV3" s="226"/>
+      <c r="AW3" s="226"/>
+      <c r="AX3" s="226"/>
+      <c r="AY3" s="226"/>
+      <c r="AZ3" s="226"/>
+      <c r="BA3" s="226"/>
+      <c r="BB3" s="226"/>
+      <c r="BC3" s="226"/>
+      <c r="BD3" s="226"/>
+      <c r="BE3" s="226"/>
+      <c r="BF3" s="226"/>
+      <c r="BG3" s="226"/>
+      <c r="BH3" s="226"/>
+      <c r="BI3" s="226"/>
+      <c r="BJ3" s="226"/>
+      <c r="BK3" s="226"/>
+      <c r="BL3" s="226"/>
+      <c r="BM3" s="226"/>
+      <c r="BN3" s="226"/>
+      <c r="BO3" s="226"/>
+      <c r="BP3" s="226"/>
+      <c r="BQ3" s="226"/>
+      <c r="BR3" s="226"/>
+      <c r="BS3" s="226"/>
+      <c r="BT3" s="226"/>
+      <c r="BU3" s="226"/>
+      <c r="BV3" s="226"/>
+      <c r="BW3" s="226"/>
+      <c r="BX3" s="226"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -6466,8 +6483,8 @@
       <c r="AH6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI6" s="162" t="s">
-        <v>531</v>
+      <c r="AI6" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
@@ -6657,8 +6674,8 @@
       <c r="AH7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI7" s="162" t="s">
-        <v>531</v>
+      <c r="AI7" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ7" s="2">
         <v>0</v>
@@ -6849,8 +6866,8 @@
       <c r="AH8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI8" s="162" t="s">
-        <v>531</v>
+      <c r="AI8" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ8" s="2">
         <v>0</v>
@@ -6960,10 +6977,10 @@
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="232" t="s">
+      <c r="A9" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="233"/>
+      <c r="B9" s="234"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -7039,8 +7056,8 @@
       <c r="AH9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI9" s="162" t="s">
-        <v>531</v>
+      <c r="AI9" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ9" s="2">
         <v>0</v>
@@ -7231,8 +7248,8 @@
       <c r="AH10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI10" s="162" t="s">
-        <v>531</v>
+      <c r="AI10" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ10" s="2">
         <v>0</v>
@@ -7423,8 +7440,8 @@
       <c r="AH11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI11" s="162" t="s">
-        <v>531</v>
+      <c r="AI11" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ11" s="2">
         <v>0</v>
@@ -7613,8 +7630,8 @@
       <c r="AH12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI12" s="162" t="s">
-        <v>531</v>
+      <c r="AI12" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ12" s="2">
         <v>0</v>
@@ -7797,8 +7814,8 @@
       <c r="AH13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI13" s="162" t="s">
-        <v>531</v>
+      <c r="AI13" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ13" s="2">
         <v>0</v>
@@ -7971,8 +7988,8 @@
       <c r="AH14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI14" s="162" t="s">
-        <v>531</v>
+      <c r="AI14" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ14" s="2">
         <v>0</v>
@@ -8139,8 +8156,8 @@
       <c r="AH15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI15" s="162" t="s">
-        <v>531</v>
+      <c r="AI15" s="161" t="s">
+        <v>529</v>
       </c>
       <c r="AJ15" s="2">
         <v>0</v>
@@ -9580,7 +9597,7 @@
         <v>101</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
@@ -9743,8 +9760,8 @@
       <c r="N25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O25" s="162" t="s">
-        <v>532</v>
+      <c r="O25" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2">
@@ -9907,8 +9924,8 @@
       <c r="N26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="162" t="s">
-        <v>532</v>
+      <c r="O26" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2">
@@ -10071,8 +10088,8 @@
       <c r="N27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O27" s="162" t="s">
-        <v>532</v>
+      <c r="O27" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2">
@@ -10235,8 +10252,8 @@
       <c r="N28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="162" t="s">
-        <v>532</v>
+      <c r="O28" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2">
@@ -10399,8 +10416,8 @@
       <c r="N29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O29" s="162" t="s">
-        <v>532</v>
+      <c r="O29" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2">
@@ -10563,8 +10580,8 @@
       <c r="N30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O30" s="162" t="s">
-        <v>532</v>
+      <c r="O30" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2">
@@ -10727,8 +10744,8 @@
       <c r="N31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O31" s="162" t="s">
-        <v>532</v>
+      <c r="O31" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2">
@@ -10891,8 +10908,8 @@
       <c r="N32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O32" s="162" t="s">
-        <v>532</v>
+      <c r="O32" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2">
@@ -11055,8 +11072,8 @@
       <c r="N33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O33" s="162" t="s">
-        <v>532</v>
+      <c r="O33" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2">
@@ -11219,8 +11236,8 @@
       <c r="N34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O34" s="162" t="s">
-        <v>532</v>
+      <c r="O34" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2">
@@ -11383,8 +11400,8 @@
       <c r="N35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O35" s="162" t="s">
-        <v>532</v>
+      <c r="O35" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2">
@@ -11547,8 +11564,8 @@
       <c r="N36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O36" s="162" t="s">
-        <v>532</v>
+      <c r="O36" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2">
@@ -11702,8 +11719,8 @@
       <c r="N37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O37" s="162" t="s">
-        <v>532</v>
+      <c r="O37" s="161" t="s">
+        <v>530</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2">
@@ -11978,15 +11995,15 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="226" t="s">
+      <c r="F42" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="227"/>
-      <c r="H42" s="228"/>
-      <c r="K42" s="234" t="s">
-        <v>512</v>
-      </c>
-      <c r="L42" s="235"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="229"/>
+      <c r="K42" s="235" t="s">
+        <v>510</v>
+      </c>
+      <c r="L42" s="236"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -11998,10 +12015,10 @@
       <c r="H43" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="151" t="s">
-        <v>513</v>
-      </c>
-      <c r="L43" s="151">
+      <c r="K43" s="150" t="s">
+        <v>511</v>
+      </c>
+      <c r="L43" s="150">
         <v>1</v>
       </c>
     </row>
@@ -12011,10 +12028,10 @@
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="29"/>
-      <c r="K44" s="151" t="s">
-        <v>516</v>
-      </c>
-      <c r="L44" s="151">
+      <c r="K44" s="150" t="s">
+        <v>514</v>
+      </c>
+      <c r="L44" s="150">
         <v>0</v>
       </c>
     </row>
@@ -12024,10 +12041,10 @@
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="29"/>
-      <c r="K45" s="151" t="s">
-        <v>514</v>
-      </c>
-      <c r="L45" s="151">
+      <c r="K45" s="150" t="s">
+        <v>512</v>
+      </c>
+      <c r="L45" s="150">
         <v>1</v>
       </c>
     </row>
@@ -12037,10 +12054,10 @@
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="29"/>
-      <c r="K46" s="151" t="s">
-        <v>515</v>
-      </c>
-      <c r="L46" s="151">
+      <c r="K46" s="150" t="s">
+        <v>513</v>
+      </c>
+      <c r="L46" s="150">
         <v>0</v>
       </c>
     </row>
@@ -12050,10 +12067,10 @@
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="29"/>
-      <c r="K47" s="151" t="s">
-        <v>517</v>
-      </c>
-      <c r="L47" s="151">
+      <c r="K47" s="150" t="s">
+        <v>515</v>
+      </c>
+      <c r="L47" s="150">
         <v>0</v>
       </c>
     </row>
@@ -12080,11 +12097,11 @@
     </row>
     <row r="55" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="226" t="s">
+      <c r="C56" s="227" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="227"/>
-      <c r="E56" s="228"/>
+      <c r="D56" s="228"/>
+      <c r="E56" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12364,7 +12381,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="Q4" s="80">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -12404,88 +12421,88 @@
     <row r="5" spans="1:29" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="125" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>335</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="K5" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="M5" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="N5" s="126" t="s">
+      <c r="N5" s="125" t="s">
         <v>353</v>
       </c>
-      <c r="O5" s="126" t="s">
+      <c r="O5" s="125" t="s">
         <v>354</v>
       </c>
-      <c r="P5" s="126" t="s">
+      <c r="P5" s="125" t="s">
         <v>355</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="Q5" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="R5" s="126" t="s">
+      <c r="R5" s="125" t="s">
         <v>357</v>
       </c>
-      <c r="S5" s="126" t="s">
+      <c r="S5" s="125" t="s">
         <v>358</v>
       </c>
-      <c r="T5" s="126" t="s">
+      <c r="T5" s="125" t="s">
         <v>359</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="U5" s="125" t="s">
         <v>360</v>
       </c>
-      <c r="V5" s="126" t="s">
+      <c r="V5" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="W5" s="126" t="s">
+      <c r="W5" s="125" t="s">
         <v>361</v>
       </c>
-      <c r="X5" s="127" t="s">
+      <c r="X5" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="Y5" s="128" t="s">
+      <c r="Y5" s="127" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z5" s="127" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA5" s="128" t="s">
         <v>494</v>
       </c>
-      <c r="Z5" s="128" t="s">
+      <c r="AB5" s="128" t="s">
         <v>495</v>
-      </c>
-      <c r="AA5" s="129" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB5" s="129" t="s">
-        <v>497</v>
       </c>
       <c r="AC5" s="63"/>
     </row>
     <row r="6" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
@@ -12499,18 +12516,18 @@
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="131"/>
+      <c r="Q6" s="130"/>
       <c r="R6" s="63"/>
       <c r="S6" s="63"/>
       <c r="T6" s="63"/>
       <c r="U6" s="63"/>
       <c r="V6" s="63"/>
       <c r="W6" s="63"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
       <c r="AC6" s="63"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -12521,82 +12538,82 @@
         <f>IF(COUNTIF($B$7:B7,B7)=1,"&lt;zzzimport&gt;",1)</f>
         <v>&lt;zzzimport&gt;</v>
       </c>
-      <c r="D7" s="124">
+      <c r="D7" s="123">
         <f>'&lt;zallcab&gt;EXPORT'!E6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="123">
         <f>'&lt;zallcab&gt;EXPORT'!H6</f>
         <v>0</v>
       </c>
-      <c r="F7" s="124" t="str">
+      <c r="F7" s="123" t="str">
         <f>'&lt;zallcab&gt;EXPORT'!K6</f>
         <v>&lt;zcabdevfinish&gt;</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="123">
         <f>'&lt;zallcab&gt;EXPORT'!P6</f>
         <v>0</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="123">
         <f>'&lt;zallcab&gt;EXPORT'!M6</f>
         <v>0</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="123">
         <v>1</v>
       </c>
-      <c r="J7" s="124" t="e">
+      <c r="J7" s="123" t="e">
         <f>INDEX(BDzallcab!$C$4:$C$9,MATCH(G7,BDzallcab!$B$4:$B$9))</f>
         <v>#N/A</v>
       </c>
-      <c r="K7" s="124">
+      <c r="K7" s="123">
         <f>SUMIFS(I7:$I$700000,D7:$D$700000,D7,G7:$G$700000,G7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="124">
+      <c r="L7" s="123">
         <f>MATCH(D7,$D$7:D7,0)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="124">
+      <c r="M7" s="123">
         <f>SUMIFS(I7:$I$700000,D7:$D$700000,D7)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="124" t="str">
+      <c r="N7" s="123" t="str">
         <f>INDEX($F$7:$F$700000,L7+M7-1)</f>
         <v>&lt;zcabdevfinish&gt;</v>
       </c>
-      <c r="O7" s="124" t="str">
+      <c r="O7" s="123" t="str">
         <f>INDEX($N$7:$N$700000,MATCH(D7,$D$7:D7,0))</f>
         <v>&lt;zcabdevfinish&gt;</v>
       </c>
-      <c r="P7" s="124">
+      <c r="P7" s="123">
         <f>SUMIFS($H$7:H7,$D$7:D7,D7,$G$7:G7,G7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="134">
+      <c r="Q7" s="133">
         <f t="shared" ref="Q7" si="1">IF(K7=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="124">
+      <c r="R7" s="123">
         <f>IF(SUMIFS($Q$7:Q7,$D$7:D7,D7)=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S7" s="124">
+      <c r="S7" s="123">
         <f t="shared" ref="S7" si="2">IF(R7=1,D7," ")</f>
         <v>0</v>
       </c>
-      <c r="T7" s="124">
+      <c r="T7" s="123">
         <f t="shared" ref="T7" si="3">IF(R7=1,E7," ")</f>
         <v>0</v>
       </c>
-      <c r="U7" s="124" t="str">
+      <c r="U7" s="123" t="str">
         <f t="shared" ref="U7" si="4">IF(R7=1,O7," ")</f>
         <v>&lt;zcabdevfinish&gt;</v>
       </c>
-      <c r="V7" s="124">
+      <c r="V7" s="123">
         <f>IF(Q7=1,G7," ")</f>
         <v>0</v>
       </c>
-      <c r="W7" s="124">
+      <c r="W7" s="123">
         <f t="shared" ref="W7" si="5">IF(Q7=1,P7," ")</f>
         <v>0</v>
       </c>
@@ -12604,13 +12621,13 @@
         <f>SUMIFS($H$7:$H$700000,$D$7:$D$700000,D7)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="129">
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="128">
         <f>INDEX($Y$7:Y7,MATCH(D7,$D$7:D7,0))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="129">
+      <c r="AB7" s="128">
         <f>INDEX($Z$7:Z7,MATCH(D7,$D$7:D7,0))</f>
         <v>0</v>
       </c>
@@ -12637,51 +12654,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="248" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="246"/>
-      <c r="L1" s="245" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
+      <c r="D1" s="248"/>
+      <c r="L1" s="247" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="105">
         <f>D2</f>
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>477</v>
+      </c>
+      <c r="O3" t="s">
+        <v>478</v>
+      </c>
+      <c r="P3" t="s">
         <v>479</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>480</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>481</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>482</v>
-      </c>
-      <c r="R3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.25">
@@ -12689,23 +12706,23 @@
         <v>210</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="N4" s="136">
-        <v>0</v>
-      </c>
-      <c r="O4" s="136">
-        <v>0</v>
-      </c>
-      <c r="P4" s="137">
+        <v>482</v>
+      </c>
+      <c r="N4" s="135">
+        <v>0</v>
+      </c>
+      <c r="O4" s="135">
+        <v>0</v>
+      </c>
+      <c r="P4" s="136">
         <f>D2</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="137">
+      <c r="Q4" s="136">
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="138">
+      <c r="R4" s="137">
         <v>0</v>
       </c>
       <c r="S4" t="s">
@@ -12729,22 +12746,22 @@
         <v>232</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="111" t="s">
-        <v>499</v>
-      </c>
-      <c r="N6" s="139"/>
-      <c r="O6" s="136">
+      <c r="K6" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="N6" s="138"/>
+      <c r="O6" s="135">
         <f>-24*D3</f>
         <v>-24</v>
       </c>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="138"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="137"/>
     </row>
     <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -12778,90 +12795,90 @@
         <f>'&lt;zallcab&gt;CALC'!W7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="110">
         <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>210</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N7" s="139">
-        <v>0</v>
-      </c>
-      <c r="O7" s="136">
+        <v>483</v>
+      </c>
+      <c r="N7" s="138">
+        <v>0</v>
+      </c>
+      <c r="O7" s="135">
         <f>INDEX($O$6:O6,SUM($K$7:K7))-(8*Q7)</f>
         <v>-32</v>
       </c>
-      <c r="P7" s="137">
+      <c r="P7" s="136">
         <f>$D$2</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="137">
+      <c r="Q7" s="136">
         <f>$D$3</f>
         <v>1</v>
       </c>
-      <c r="R7" s="138">
-        <v>0</v>
-      </c>
-      <c r="S7" s="140" t="s">
-        <v>486</v>
-      </c>
-      <c r="T7" s="125" t="str">
+      <c r="R7" s="137">
+        <v>0</v>
+      </c>
+      <c r="S7" s="139" t="s">
+        <v>484</v>
+      </c>
+      <c r="T7" s="124" t="str">
         <f>IF(C7=0,"",C7)</f>
         <v/>
       </c>
-      <c r="U7" s="141" t="s">
-        <v>487</v>
-      </c>
-      <c r="V7" s="141" t="str">
+      <c r="U7" s="140" t="s">
+        <v>485</v>
+      </c>
+      <c r="V7" s="140" t="str">
         <f>IF(C7=0,"",D7)</f>
         <v/>
       </c>
-      <c r="W7" s="142" t="s">
-        <v>488</v>
-      </c>
-      <c r="X7" s="143" t="str">
+      <c r="W7" s="141" t="s">
+        <v>486</v>
+      </c>
+      <c r="X7" s="142" t="str">
         <f>IF(C7=0,"",E7)</f>
         <v/>
       </c>
-      <c r="Y7" s="142" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z7" s="141" t="str">
+      <c r="Y7" s="141" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z7" s="140" t="str">
         <f>IF(C7=0,"",F7)</f>
         <v/>
       </c>
-      <c r="AA7" s="144" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB7" s="145" t="str">
+      <c r="AA7" s="143" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB7" s="144" t="str">
         <f>IF(C7=0,"",G7)</f>
         <v/>
       </c>
-      <c r="AC7" s="146" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD7" s="145" t="str">
+      <c r="AC7" s="145" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD7" s="144" t="str">
         <f>IF(C7=0,"",H7)</f>
         <v/>
       </c>
-      <c r="AE7" s="146" t="s">
-        <v>492</v>
-      </c>
-      <c r="AF7" s="147" t="str">
+      <c r="AE7" s="145" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF7" s="146" t="str">
         <f>IF(C7=0,"",I7)</f>
         <v/>
       </c>
       <c r="AG7" t="s">
         <v>192</v>
       </c>
-      <c r="AI7" s="148"/>
+      <c r="AI7" s="147"/>
       <c r="AO7" t="s">
         <v>190</v>
       </c>
-      <c r="AS7" s="148"/>
+      <c r="AS7" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13012,7 +13029,7 @@
   <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13119,12 +13136,12 @@
       <c r="K5" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>476</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
@@ -13150,11 +13167,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="52" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AZ11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BD11</f>
         <v>0</v>
       </c>
       <c r="J6" s="52">
-        <f>'&lt;zalldev&gt;EXPORT'!AY11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!BC11</f>
         <v>0</v>
       </c>
       <c r="K6" s="52">
@@ -13176,8 +13193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:IZ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13232,89 +13249,89 @@
       </c>
     </row>
     <row r="4" spans="4:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="97"/>
+      <c r="J4" s="96"/>
       <c r="O4" s="66"/>
-      <c r="P4" s="251" t="s">
+      <c r="P4" s="283" t="s">
         <v>312</v>
       </c>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
-      <c r="T4" s="251"/>
-      <c r="U4" s="251"/>
-      <c r="Y4" s="246" t="s">
+      <c r="Q4" s="283"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="Y4" s="248" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="246"/>
-      <c r="AT4" s="103" t="s">
+      <c r="Z4" s="248"/>
+      <c r="AT4" s="102" t="s">
         <v>404</v>
       </c>
-      <c r="AU4" s="103" t="s">
+      <c r="AU4" s="102" t="s">
         <v>405</v>
       </c>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103" t="s">
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AX4" s="103" t="s">
+      <c r="AX4" s="102" t="s">
         <v>403</v>
       </c>
-      <c r="AY4" s="103" t="s">
+      <c r="AY4" s="102" t="s">
         <v>408</v>
       </c>
-      <c r="AZ4" s="103" t="s">
+      <c r="AZ4" s="102" t="s">
         <v>402</v>
       </c>
-      <c r="BA4" s="103" t="s">
+      <c r="BA4" s="102" t="s">
         <v>406</v>
       </c>
-      <c r="BB4" s="103" t="s">
+      <c r="BB4" s="102" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="5" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D5" s="252" t="s">
+      <c r="D5" s="284" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="107">
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="106">
         <f>AT5</f>
         <v>0</v>
       </c>
       <c r="I5" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="97"/>
       <c r="O5" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="P5" s="253" t="s">
+      <c r="P5" s="285" t="s">
         <v>308</v>
       </c>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="253"/>
-      <c r="T5" s="253">
+      <c r="Q5" s="285"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="285">
         <f ca="1">ROUNDUP(SUM($AB$26:$AB$900000),2)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="253"/>
-      <c r="Y5" s="106" t="s">
+      <c r="U5" s="285"/>
+      <c r="Y5" s="105" t="s">
         <v>426</v>
       </c>
-      <c r="Z5" s="106">
+      <c r="Z5" s="105">
         <v>1</v>
       </c>
       <c r="AS5" t="s">
@@ -13349,7 +13366,7 @@
         <f>'&lt;zlight&gt;TEMPGU'!J6</f>
         <v>0</v>
       </c>
-      <c r="BB5" s="104">
+      <c r="BB5" s="103">
         <f>IF(BA5=0,0,1)</f>
         <v>0</v>
       </c>
@@ -13358,1281 +13375,1281 @@
       </c>
     </row>
     <row r="6" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D6" s="254" t="s">
+      <c r="D6" s="286" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="96" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="95" t="s">
         <v>445</v>
       </c>
       <c r="I6" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="97"/>
       <c r="O6" s="65">
         <v>63</v>
       </c>
-      <c r="P6" s="253" t="s">
+      <c r="P6" s="285" t="s">
         <v>305</v>
       </c>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253">
+      <c r="Q6" s="285"/>
+      <c r="R6" s="285"/>
+      <c r="S6" s="285"/>
+      <c r="T6" s="285">
         <f ca="1">ROUNDUP(T5*T11,2)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="253"/>
-      <c r="Y6" s="106" t="s">
+      <c r="U6" s="285"/>
+      <c r="Y6" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="Z6" s="106">
+      <c r="Z6" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="278" t="s">
         <v>304</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
       <c r="H7" s="62">
         <v>45399</v>
       </c>
       <c r="I7" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="98"/>
+      <c r="J7" s="97"/>
       <c r="O7" s="65">
         <v>32</v>
       </c>
-      <c r="P7" s="253" t="s">
+      <c r="P7" s="285" t="s">
         <v>302</v>
       </c>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253">
+      <c r="Q7" s="285"/>
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="253"/>
+      <c r="U7" s="285"/>
     </row>
     <row r="8" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="278" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
       <c r="H8" s="62" t="s">
         <v>300</v>
       </c>
       <c r="I8" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="J8" s="98"/>
+      <c r="J8" s="97"/>
       <c r="O8" s="65">
         <v>6</v>
       </c>
-      <c r="P8" s="255" t="s">
+      <c r="P8" s="287" t="s">
         <v>298</v>
       </c>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="260">
+      <c r="Q8" s="288"/>
+      <c r="R8" s="288"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="276">
         <v>0.92</v>
       </c>
-      <c r="U8" s="260"/>
+      <c r="U8" s="276"/>
     </row>
     <row r="9" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D9" s="247" t="s">
+      <c r="D9" s="278" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
       <c r="H9" s="62" t="s">
         <v>296</v>
       </c>
       <c r="I9" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="J9" s="98"/>
+      <c r="J9" s="97"/>
       <c r="O9" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="P9" s="248" t="s">
+      <c r="P9" s="290" t="s">
         <v>293</v>
       </c>
-      <c r="Q9" s="248"/>
-      <c r="R9" s="248"/>
-      <c r="S9" s="248"/>
-      <c r="T9" s="249"/>
-      <c r="U9" s="249"/>
+      <c r="Q9" s="290"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="290"/>
+      <c r="T9" s="291"/>
+      <c r="U9" s="291"/>
     </row>
     <row r="10" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D10" s="247" t="s">
+      <c r="D10" s="278" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
       <c r="I10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="98"/>
+      <c r="J10" s="97"/>
       <c r="O10" s="65">
         <v>4</v>
       </c>
-      <c r="P10" s="248"/>
-      <c r="Q10" s="248"/>
-      <c r="R10" s="248"/>
-      <c r="S10" s="248"/>
-      <c r="T10" s="249"/>
-      <c r="U10" s="249"/>
+      <c r="P10" s="290"/>
+      <c r="Q10" s="290"/>
+      <c r="R10" s="290"/>
+      <c r="S10" s="290"/>
+      <c r="T10" s="291"/>
+      <c r="U10" s="291"/>
     </row>
     <row r="11" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D11" s="247" t="s">
+      <c r="D11" s="278" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="106">
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="105">
         <v>380</v>
       </c>
       <c r="I11" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="J11" s="98"/>
+      <c r="J11" s="97"/>
       <c r="O11" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="P11" s="273" t="s">
+      <c r="P11" s="269" t="s">
         <v>287</v>
       </c>
-      <c r="Q11" s="274"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="275"/>
-      <c r="T11" s="276">
+      <c r="Q11" s="270"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="271"/>
+      <c r="T11" s="272">
         <v>1</v>
       </c>
-      <c r="U11" s="277"/>
+      <c r="U11" s="273"/>
     </row>
     <row r="12" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D12" s="247" t="s">
+      <c r="D12" s="278" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
       <c r="H12" s="62" t="s">
         <v>285</v>
       </c>
       <c r="I12" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="J12" s="98"/>
+      <c r="J12" s="97"/>
       <c r="O12" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="P12" s="250" t="s">
+      <c r="P12" s="279" t="s">
         <v>283</v>
       </c>
-      <c r="Q12" s="250"/>
-      <c r="R12" s="250"/>
-      <c r="S12" s="250"/>
-      <c r="T12" s="250">
+      <c r="Q12" s="279"/>
+      <c r="R12" s="279"/>
+      <c r="S12" s="279"/>
+      <c r="T12" s="279">
         <v>44.5</v>
       </c>
-      <c r="U12" s="250"/>
+      <c r="U12" s="279"/>
     </row>
     <row r="13" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D13" s="247" t="s">
+      <c r="D13" s="278" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="278"/>
       <c r="H13" s="62" t="s">
         <v>281</v>
       </c>
       <c r="I13" s="63"/>
-      <c r="J13" s="99"/>
+      <c r="J13" s="98"/>
       <c r="O13" s="63"/>
-      <c r="P13" s="250" t="s">
+      <c r="P13" s="279" t="s">
         <v>280</v>
       </c>
-      <c r="Q13" s="250"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="250"/>
-      <c r="T13" s="250">
+      <c r="Q13" s="279"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="279">
         <v>44.5</v>
       </c>
-      <c r="U13" s="250"/>
+      <c r="U13" s="279"/>
     </row>
     <row r="14" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D14" s="247" t="s">
+      <c r="D14" s="278" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="278"/>
       <c r="H14" s="64" t="str">
         <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
       </c>
       <c r="I14" s="63"/>
-      <c r="J14" s="99"/>
+      <c r="J14" s="98"/>
       <c r="O14" s="63"/>
-      <c r="P14" s="250" t="s">
+      <c r="P14" s="279" t="s">
         <v>278</v>
       </c>
-      <c r="Q14" s="250"/>
-      <c r="R14" s="250"/>
-      <c r="S14" s="250"/>
-      <c r="T14" s="250">
+      <c r="Q14" s="279"/>
+      <c r="R14" s="279"/>
+      <c r="S14" s="279"/>
+      <c r="T14" s="279">
         <v>44.5</v>
       </c>
-      <c r="U14" s="250"/>
+      <c r="U14" s="279"/>
     </row>
     <row r="15" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="278" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
       <c r="H15" s="62">
         <v>77</v>
       </c>
       <c r="O15" s="63"/>
-      <c r="P15" s="259" t="s">
+      <c r="P15" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="259"/>
-      <c r="S15" s="259"/>
-      <c r="T15" s="260">
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="276">
         <f ca="1">ROUNDUP((T6*1000)/(INDEX(BD!$C$4:$C$5,MATCH(H11,BD!$B$4:$B$5,0))*T8),2)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="260"/>
+      <c r="U15" s="276"/>
     </row>
     <row r="16" spans="4:55" x14ac:dyDescent="0.25">
-      <c r="P16" s="263" t="s">
+      <c r="P16" s="259" t="s">
         <v>407</v>
       </c>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="263"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="263" t="e">
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="259" t="e">
         <f>INDEX(AZ5:AZ9,MATCH(1,BB5:BB9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="U16" s="263"/>
+      <c r="U16" s="259"/>
     </row>
     <row r="22" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="K22" s="149" t="s">
-        <v>500</v>
+      <c r="K22" s="148" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="K23" s="150">
+      <c r="K23" s="149">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:260" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83">
+      <c r="A24" s="82">
         <f>COLUMN(A24)</f>
         <v>1</v>
       </c>
-      <c r="B24" s="175">
+      <c r="B24" s="174">
         <f t="shared" ref="B24:BM24" si="0">COLUMN(B24)</f>
         <v>2</v>
       </c>
-      <c r="C24" s="175">
+      <c r="C24" s="174">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D24" s="175">
+      <c r="D24" s="174">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="175">
+      <c r="E24" s="174">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F24" s="175">
+      <c r="F24" s="174">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G24" s="175">
+      <c r="G24" s="174">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H24" s="175">
+      <c r="H24" s="174">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I24" s="175">
+      <c r="I24" s="174">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J24" s="175">
+      <c r="J24" s="174">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="175">
+      <c r="K24" s="174">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L24" s="175">
+      <c r="L24" s="174">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M24" s="175">
+      <c r="M24" s="174">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N24" s="175">
+      <c r="N24" s="174">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O24" s="175">
+      <c r="O24" s="174">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P24" s="175">
+      <c r="P24" s="174">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q24" s="175">
+      <c r="Q24" s="174">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R24" s="175">
+      <c r="R24" s="174">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S24" s="175">
+      <c r="S24" s="174">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T24" s="175">
+      <c r="T24" s="174">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U24" s="175">
+      <c r="U24" s="174">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V24" s="175">
+      <c r="V24" s="174">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W24" s="175">
+      <c r="W24" s="174">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="X24" s="175">
+      <c r="X24" s="174">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y24" s="175">
+      <c r="Y24" s="174">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z24" s="175">
+      <c r="Z24" s="174">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA24" s="175">
+      <c r="AA24" s="174">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB24" s="175">
+      <c r="AB24" s="174">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC24" s="175">
+      <c r="AC24" s="174">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AD24" s="175">
+      <c r="AD24" s="174">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AE24" s="175">
+      <c r="AE24" s="174">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AF24" s="175">
+      <c r="AF24" s="174">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AG24" s="175">
+      <c r="AG24" s="174">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AH24" s="175">
+      <c r="AH24" s="174">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AI24" s="175">
+      <c r="AI24" s="174">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AJ24" s="175">
+      <c r="AJ24" s="174">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AK24" s="175">
+      <c r="AK24" s="174">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AL24" s="175">
+      <c r="AL24" s="174">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AM24" s="175">
+      <c r="AM24" s="174">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AN24" s="175">
+      <c r="AN24" s="174">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AO24" s="175">
+      <c r="AO24" s="174">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AP24" s="175">
+      <c r="AP24" s="174">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AQ24" s="175">
+      <c r="AQ24" s="174">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AR24" s="175">
+      <c r="AR24" s="174">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AS24" s="175">
+      <c r="AS24" s="174">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AT24" s="175">
+      <c r="AT24" s="174">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AU24" s="175">
+      <c r="AU24" s="174">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AV24" s="175">
+      <c r="AV24" s="174">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AW24" s="175">
+      <c r="AW24" s="174">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AX24" s="175">
+      <c r="AX24" s="174">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AY24" s="175">
+      <c r="AY24" s="174">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AZ24" s="175">
+      <c r="AZ24" s="174">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BA24" s="175">
+      <c r="BA24" s="174">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BB24" s="175">
+      <c r="BB24" s="174">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BC24" s="175">
+      <c r="BC24" s="174">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BD24" s="175">
+      <c r="BD24" s="174">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BE24" s="175">
+      <c r="BE24" s="174">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BF24" s="175">
+      <c r="BF24" s="174">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BG24" s="175">
+      <c r="BG24" s="174">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BH24" s="175">
+      <c r="BH24" s="174">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BI24" s="175">
+      <c r="BI24" s="174">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BJ24" s="175">
+      <c r="BJ24" s="174">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BK24" s="175">
+      <c r="BK24" s="174">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BL24" s="175">
+      <c r="BL24" s="174">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BM24" s="175">
+      <c r="BM24" s="174">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BN24" s="175">
+      <c r="BN24" s="174">
         <f t="shared" ref="BN24:DY24" si="1">COLUMN(BN24)</f>
         <v>66</v>
       </c>
-      <c r="BO24" s="175">
+      <c r="BO24" s="174">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="BP24" s="175">
+      <c r="BP24" s="174">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BQ24" s="175">
+      <c r="BQ24" s="174">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BR24" s="175">
+      <c r="BR24" s="174">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BS24" s="175">
+      <c r="BS24" s="174">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BT24" s="175">
+      <c r="BT24" s="174">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BU24" s="175">
+      <c r="BU24" s="174">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BV24" s="175">
+      <c r="BV24" s="174">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BW24" s="175">
+      <c r="BW24" s="174">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BX24" s="175">
+      <c r="BX24" s="174">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="BY24" s="175">
+      <c r="BY24" s="174">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="BZ24" s="175">
+      <c r="BZ24" s="174">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CA24" s="175">
+      <c r="CA24" s="174">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CB24" s="175">
+      <c r="CB24" s="174">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CC24" s="175">
+      <c r="CC24" s="174">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CD24" s="175">
+      <c r="CD24" s="174">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CE24" s="175">
+      <c r="CE24" s="174">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="CF24" s="175">
+      <c r="CF24" s="174">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="CG24" s="175">
+      <c r="CG24" s="174">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="CH24" s="175">
+      <c r="CH24" s="174">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="CI24" s="175">
+      <c r="CI24" s="174">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CJ24" s="175">
+      <c r="CJ24" s="174">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CK24" s="175">
+      <c r="CK24" s="174">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CL24" s="175">
+      <c r="CL24" s="174">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CM24" s="175">
+      <c r="CM24" s="174">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CN24" s="175">
+      <c r="CN24" s="174">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CO24" s="175">
+      <c r="CO24" s="174">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CP24" s="175">
+      <c r="CP24" s="174">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CQ24" s="175">
+      <c r="CQ24" s="174">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CR24" s="175">
+      <c r="CR24" s="174">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CS24" s="175">
+      <c r="CS24" s="174">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CT24" s="175">
+      <c r="CT24" s="174">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CU24" s="175">
+      <c r="CU24" s="174">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CV24" s="175">
+      <c r="CV24" s="174">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CW24" s="175">
+      <c r="CW24" s="174">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="CX24" s="175">
+      <c r="CX24" s="174">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="CY24" s="175">
+      <c r="CY24" s="174">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="CZ24" s="175">
+      <c r="CZ24" s="174">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DA24" s="175">
+      <c r="DA24" s="174">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DB24" s="175">
+      <c r="DB24" s="174">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DC24" s="175">
+      <c r="DC24" s="174">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DD24" s="175">
+      <c r="DD24" s="174">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DE24" s="175">
+      <c r="DE24" s="174">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DF24" s="175">
+      <c r="DF24" s="174">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DG24" s="175">
+      <c r="DG24" s="174">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DH24" s="175">
+      <c r="DH24" s="174">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="DI24" s="175">
+      <c r="DI24" s="174">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="DJ24" s="175">
+      <c r="DJ24" s="174">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="DK24" s="175">
+      <c r="DK24" s="174">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="DL24" s="175">
+      <c r="DL24" s="174">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="DM24" s="175">
+      <c r="DM24" s="174">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="DN24" s="175">
+      <c r="DN24" s="174">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="DO24" s="175">
+      <c r="DO24" s="174">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="DP24" s="175">
+      <c r="DP24" s="174">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="DQ24" s="175">
+      <c r="DQ24" s="174">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="DR24" s="175">
+      <c r="DR24" s="174">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="DS24" s="175">
+      <c r="DS24" s="174">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="DT24" s="175">
+      <c r="DT24" s="174">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="DU24" s="175">
+      <c r="DU24" s="174">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="DV24" s="175">
+      <c r="DV24" s="174">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="DW24" s="175">
+      <c r="DW24" s="174">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="DX24" s="175">
+      <c r="DX24" s="174">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="DY24" s="175">
+      <c r="DY24" s="174">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="DZ24" s="175">
+      <c r="DZ24" s="174">
         <f t="shared" ref="DZ24:GK24" si="2">COLUMN(DZ24)</f>
         <v>130</v>
       </c>
-      <c r="EA24" s="175">
+      <c r="EA24" s="174">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="EB24" s="175">
+      <c r="EB24" s="174">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="EC24" s="175">
+      <c r="EC24" s="174">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="ED24" s="175">
+      <c r="ED24" s="174">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="EE24" s="175">
+      <c r="EE24" s="174">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="EF24" s="175">
+      <c r="EF24" s="174">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="EG24" s="175">
+      <c r="EG24" s="174">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="EH24" s="175">
+      <c r="EH24" s="174">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="EI24" s="175">
+      <c r="EI24" s="174">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="EJ24" s="175">
+      <c r="EJ24" s="174">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="EK24" s="175">
+      <c r="EK24" s="174">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="EL24" s="175">
+      <c r="EL24" s="174">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="EM24" s="175">
+      <c r="EM24" s="174">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="EN24" s="175">
+      <c r="EN24" s="174">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="EO24" s="175">
+      <c r="EO24" s="174">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="EP24" s="175">
+      <c r="EP24" s="174">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="EQ24" s="175">
+      <c r="EQ24" s="174">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="ER24" s="175">
+      <c r="ER24" s="174">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="ES24" s="175">
+      <c r="ES24" s="174">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="ET24" s="175">
+      <c r="ET24" s="174">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="EU24" s="175">
+      <c r="EU24" s="174">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="EV24" s="175">
+      <c r="EV24" s="174">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="EW24" s="175">
+      <c r="EW24" s="174">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="EX24" s="175">
+      <c r="EX24" s="174">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="EY24" s="175">
+      <c r="EY24" s="174">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="EZ24" s="175">
+      <c r="EZ24" s="174">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="FA24" s="175">
+      <c r="FA24" s="174">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="FB24" s="175">
+      <c r="FB24" s="174">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="FC24" s="175">
+      <c r="FC24" s="174">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="FD24" s="175">
+      <c r="FD24" s="174">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="FE24" s="175">
+      <c r="FE24" s="174">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="FF24" s="175">
+      <c r="FF24" s="174">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="FG24" s="175">
+      <c r="FG24" s="174">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="FH24" s="175">
+      <c r="FH24" s="174">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="FI24" s="175">
+      <c r="FI24" s="174">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="FJ24" s="175">
+      <c r="FJ24" s="174">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="FK24" s="175">
+      <c r="FK24" s="174">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="FL24" s="175">
+      <c r="FL24" s="174">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="FM24" s="175">
+      <c r="FM24" s="174">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="FN24" s="175">
+      <c r="FN24" s="174">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="FO24" s="175">
+      <c r="FO24" s="174">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="FP24" s="175">
+      <c r="FP24" s="174">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="FQ24" s="175">
+      <c r="FQ24" s="174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="FR24" s="175">
+      <c r="FR24" s="174">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="FS24" s="175">
+      <c r="FS24" s="174">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="FT24" s="175">
+      <c r="FT24" s="174">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="FU24" s="175">
+      <c r="FU24" s="174">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="FV24" s="175">
+      <c r="FV24" s="174">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="FW24" s="175">
+      <c r="FW24" s="174">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="FX24" s="175">
+      <c r="FX24" s="174">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="FY24" s="175">
+      <c r="FY24" s="174">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="FZ24" s="175">
+      <c r="FZ24" s="174">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="GA24" s="175">
+      <c r="GA24" s="174">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="GB24" s="175">
+      <c r="GB24" s="174">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="GC24" s="175">
+      <c r="GC24" s="174">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="GD24" s="175">
+      <c r="GD24" s="174">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="GE24" s="175">
+      <c r="GE24" s="174">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="GF24" s="175">
+      <c r="GF24" s="174">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="GG24" s="175">
+      <c r="GG24" s="174">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="GH24" s="175">
+      <c r="GH24" s="174">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="GI24" s="175">
+      <c r="GI24" s="174">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="GJ24" s="175">
+      <c r="GJ24" s="174">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="GK24" s="175">
+      <c r="GK24" s="174">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="GL24" s="175">
+      <c r="GL24" s="174">
         <f t="shared" ref="GL24:IM24" si="3">COLUMN(GL24)</f>
         <v>194</v>
       </c>
-      <c r="GM24" s="175">
+      <c r="GM24" s="174">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="GN24" s="175">
+      <c r="GN24" s="174">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="GO24" s="175">
+      <c r="GO24" s="174">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="GP24" s="175">
+      <c r="GP24" s="174">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="GQ24" s="175">
+      <c r="GQ24" s="174">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="GR24" s="175">
+      <c r="GR24" s="174">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="GS24" s="175">
+      <c r="GS24" s="174">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="GT24" s="175">
+      <c r="GT24" s="174">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="GU24" s="175">
+      <c r="GU24" s="174">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="GV24" s="175">
+      <c r="GV24" s="174">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="GW24" s="175">
+      <c r="GW24" s="174">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="GX24" s="175">
+      <c r="GX24" s="174">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="GY24" s="175">
+      <c r="GY24" s="174">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="GZ24" s="175">
+      <c r="GZ24" s="174">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="HA24" s="175">
+      <c r="HA24" s="174">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="HB24" s="175">
+      <c r="HB24" s="174">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="HC24" s="175">
+      <c r="HC24" s="174">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="HD24" s="175">
+      <c r="HD24" s="174">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="HE24" s="175">
+      <c r="HE24" s="174">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="HF24" s="175">
+      <c r="HF24" s="174">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="HG24" s="175">
+      <c r="HG24" s="174">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="HH24" s="175">
+      <c r="HH24" s="174">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="HI24" s="175">
+      <c r="HI24" s="174">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="HJ24" s="175">
+      <c r="HJ24" s="174">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="HK24" s="175">
+      <c r="HK24" s="174">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="HL24" s="175">
+      <c r="HL24" s="174">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="HM24" s="175">
+      <c r="HM24" s="174">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="HN24" s="175">
+      <c r="HN24" s="174">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="HO24" s="175">
+      <c r="HO24" s="174">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="HP24" s="175">
+      <c r="HP24" s="174">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="HQ24" s="175">
+      <c r="HQ24" s="174">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="HR24" s="175">
+      <c r="HR24" s="174">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="HS24" s="175">
+      <c r="HS24" s="174">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="HT24" s="175">
+      <c r="HT24" s="174">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="HU24" s="175">
+      <c r="HU24" s="174">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="HV24" s="175">
+      <c r="HV24" s="174">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="HW24" s="175">
+      <c r="HW24" s="174">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="HX24" s="175">
+      <c r="HX24" s="174">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="HY24" s="175">
+      <c r="HY24" s="174">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="HZ24" s="175">
+      <c r="HZ24" s="174">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="IA24" s="175">
+      <c r="IA24" s="174">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="IB24" s="175">
+      <c r="IB24" s="174">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="IC24" s="175">
+      <c r="IC24" s="174">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="ID24" s="175">
+      <c r="ID24" s="174">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="IE24" s="175">
+      <c r="IE24" s="174">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="IF24" s="175">
+      <c r="IF24" s="174">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="IG24" s="175">
+      <c r="IG24" s="174">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="IH24" s="175">
+      <c r="IH24" s="174">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="II24" s="175">
+      <c r="II24" s="174">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="IJ24" s="175">
+      <c r="IJ24" s="174">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="IK24" s="175">
+      <c r="IK24" s="174">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="IL24" s="175">
+      <c r="IL24" s="174">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="IM24" s="175">
+      <c r="IM24" s="174">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
@@ -14690,205 +14707,205 @@
       </c>
     </row>
     <row r="25" spans="1:260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BB25" s="267" t="s">
-        <v>518</v>
-      </c>
-      <c r="BC25" s="268"/>
-      <c r="BD25" s="268"/>
-      <c r="BE25" s="268"/>
-      <c r="BF25" s="268"/>
-      <c r="BG25" s="268"/>
-      <c r="BH25" s="268"/>
-      <c r="BI25" s="268"/>
-      <c r="BJ25" s="268"/>
-      <c r="BK25" s="268"/>
-      <c r="BL25" s="268"/>
-      <c r="BM25" s="268"/>
-      <c r="BN25" s="268"/>
-      <c r="BO25" s="268"/>
-      <c r="BP25" s="268"/>
-      <c r="BQ25" s="268"/>
-      <c r="BR25" s="268"/>
-      <c r="BS25" s="268"/>
-      <c r="BT25" s="268"/>
-      <c r="BU25" s="268"/>
-      <c r="BV25" s="268"/>
-      <c r="BW25" s="268"/>
-      <c r="BX25" s="268"/>
-      <c r="BY25" s="269"/>
-      <c r="BZ25" s="267" t="s">
-        <v>521</v>
-      </c>
-      <c r="CA25" s="268"/>
-      <c r="CB25" s="268"/>
-      <c r="CC25" s="268"/>
-      <c r="CD25" s="268"/>
-      <c r="CE25" s="268"/>
-      <c r="CF25" s="268"/>
-      <c r="CG25" s="268"/>
-      <c r="CH25" s="268"/>
-      <c r="CI25" s="268"/>
-      <c r="CJ25" s="268"/>
-      <c r="CK25" s="268"/>
-      <c r="CL25" s="268"/>
-      <c r="CM25" s="268"/>
-      <c r="CN25" s="268"/>
-      <c r="CO25" s="268"/>
-      <c r="CP25" s="268"/>
-      <c r="CQ25" s="268"/>
-      <c r="CR25" s="270" t="s">
+      <c r="BB25" s="263" t="s">
+        <v>516</v>
+      </c>
+      <c r="BC25" s="264"/>
+      <c r="BD25" s="264"/>
+      <c r="BE25" s="264"/>
+      <c r="BF25" s="264"/>
+      <c r="BG25" s="264"/>
+      <c r="BH25" s="264"/>
+      <c r="BI25" s="264"/>
+      <c r="BJ25" s="264"/>
+      <c r="BK25" s="264"/>
+      <c r="BL25" s="264"/>
+      <c r="BM25" s="264"/>
+      <c r="BN25" s="264"/>
+      <c r="BO25" s="264"/>
+      <c r="BP25" s="264"/>
+      <c r="BQ25" s="264"/>
+      <c r="BR25" s="264"/>
+      <c r="BS25" s="264"/>
+      <c r="BT25" s="264"/>
+      <c r="BU25" s="264"/>
+      <c r="BV25" s="264"/>
+      <c r="BW25" s="264"/>
+      <c r="BX25" s="264"/>
+      <c r="BY25" s="265"/>
+      <c r="BZ25" s="263" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA25" s="264"/>
+      <c r="CB25" s="264"/>
+      <c r="CC25" s="264"/>
+      <c r="CD25" s="264"/>
+      <c r="CE25" s="264"/>
+      <c r="CF25" s="264"/>
+      <c r="CG25" s="264"/>
+      <c r="CH25" s="264"/>
+      <c r="CI25" s="264"/>
+      <c r="CJ25" s="264"/>
+      <c r="CK25" s="264"/>
+      <c r="CL25" s="264"/>
+      <c r="CM25" s="264"/>
+      <c r="CN25" s="264"/>
+      <c r="CO25" s="264"/>
+      <c r="CP25" s="264"/>
+      <c r="CQ25" s="264"/>
+      <c r="CR25" s="266" t="s">
         <v>267</v>
       </c>
-      <c r="CS25" s="271"/>
-      <c r="CT25" s="271"/>
-      <c r="CU25" s="271"/>
-      <c r="CV25" s="271"/>
-      <c r="CW25" s="271"/>
-      <c r="CX25" s="271"/>
-      <c r="CY25" s="271"/>
-      <c r="CZ25" s="271"/>
-      <c r="DA25" s="271"/>
-      <c r="DB25" s="271"/>
-      <c r="DC25" s="271"/>
-      <c r="DD25" s="271"/>
-      <c r="DE25" s="271"/>
-      <c r="DF25" s="271"/>
-      <c r="DG25" s="271"/>
-      <c r="DH25" s="271"/>
-      <c r="DI25" s="271"/>
-      <c r="DJ25" s="271"/>
-      <c r="DK25" s="271"/>
-      <c r="DL25" s="271"/>
-      <c r="DM25" s="271"/>
-      <c r="DN25" s="271"/>
-      <c r="DO25" s="271"/>
-      <c r="DP25" s="271"/>
-      <c r="DQ25" s="271"/>
-      <c r="DR25" s="271"/>
-      <c r="DS25" s="271"/>
-      <c r="DT25" s="271"/>
-      <c r="DU25" s="271"/>
-      <c r="DV25" s="271"/>
-      <c r="DW25" s="271"/>
-      <c r="DX25" s="271"/>
-      <c r="DY25" s="271"/>
-      <c r="DZ25" s="271"/>
-      <c r="EA25" s="271"/>
-      <c r="EB25" s="271"/>
-      <c r="EC25" s="271"/>
-      <c r="ED25" s="271"/>
-      <c r="EE25" s="271"/>
-      <c r="EF25" s="271"/>
-      <c r="EG25" s="271"/>
-      <c r="EH25" s="271"/>
-      <c r="EI25" s="271"/>
-      <c r="EJ25" s="271"/>
-      <c r="EK25" s="271"/>
-      <c r="EL25" s="271"/>
-      <c r="EM25" s="271"/>
-      <c r="EN25" s="271"/>
-      <c r="EO25" s="271"/>
-      <c r="EP25" s="271"/>
-      <c r="EQ25" s="271"/>
-      <c r="ER25" s="271"/>
-      <c r="ES25" s="271"/>
-      <c r="ET25" s="271"/>
-      <c r="EU25" s="271"/>
-      <c r="EV25" s="271"/>
-      <c r="EW25" s="271"/>
-      <c r="EX25" s="271"/>
-      <c r="EY25" s="271"/>
-      <c r="EZ25" s="271"/>
-      <c r="FA25" s="271"/>
-      <c r="FB25" s="271"/>
-      <c r="FC25" s="271"/>
-      <c r="FD25" s="271"/>
-      <c r="FE25" s="271"/>
-      <c r="FF25" s="271"/>
-      <c r="FG25" s="271"/>
-      <c r="FH25" s="271"/>
-      <c r="FI25" s="271"/>
-      <c r="FJ25" s="271"/>
-      <c r="FK25" s="271"/>
-      <c r="FL25" s="271"/>
-      <c r="FM25" s="271"/>
-      <c r="FN25" s="272"/>
+      <c r="CS25" s="267"/>
+      <c r="CT25" s="267"/>
+      <c r="CU25" s="267"/>
+      <c r="CV25" s="267"/>
+      <c r="CW25" s="267"/>
+      <c r="CX25" s="267"/>
+      <c r="CY25" s="267"/>
+      <c r="CZ25" s="267"/>
+      <c r="DA25" s="267"/>
+      <c r="DB25" s="267"/>
+      <c r="DC25" s="267"/>
+      <c r="DD25" s="267"/>
+      <c r="DE25" s="267"/>
+      <c r="DF25" s="267"/>
+      <c r="DG25" s="267"/>
+      <c r="DH25" s="267"/>
+      <c r="DI25" s="267"/>
+      <c r="DJ25" s="267"/>
+      <c r="DK25" s="267"/>
+      <c r="DL25" s="267"/>
+      <c r="DM25" s="267"/>
+      <c r="DN25" s="267"/>
+      <c r="DO25" s="267"/>
+      <c r="DP25" s="267"/>
+      <c r="DQ25" s="267"/>
+      <c r="DR25" s="267"/>
+      <c r="DS25" s="267"/>
+      <c r="DT25" s="267"/>
+      <c r="DU25" s="267"/>
+      <c r="DV25" s="267"/>
+      <c r="DW25" s="267"/>
+      <c r="DX25" s="267"/>
+      <c r="DY25" s="267"/>
+      <c r="DZ25" s="267"/>
+      <c r="EA25" s="267"/>
+      <c r="EB25" s="267"/>
+      <c r="EC25" s="267"/>
+      <c r="ED25" s="267"/>
+      <c r="EE25" s="267"/>
+      <c r="EF25" s="267"/>
+      <c r="EG25" s="267"/>
+      <c r="EH25" s="267"/>
+      <c r="EI25" s="267"/>
+      <c r="EJ25" s="267"/>
+      <c r="EK25" s="267"/>
+      <c r="EL25" s="267"/>
+      <c r="EM25" s="267"/>
+      <c r="EN25" s="267"/>
+      <c r="EO25" s="267"/>
+      <c r="EP25" s="267"/>
+      <c r="EQ25" s="267"/>
+      <c r="ER25" s="267"/>
+      <c r="ES25" s="267"/>
+      <c r="ET25" s="267"/>
+      <c r="EU25" s="267"/>
+      <c r="EV25" s="267"/>
+      <c r="EW25" s="267"/>
+      <c r="EX25" s="267"/>
+      <c r="EY25" s="267"/>
+      <c r="EZ25" s="267"/>
+      <c r="FA25" s="267"/>
+      <c r="FB25" s="267"/>
+      <c r="FC25" s="267"/>
+      <c r="FD25" s="267"/>
+      <c r="FE25" s="267"/>
+      <c r="FF25" s="267"/>
+      <c r="FG25" s="267"/>
+      <c r="FH25" s="267"/>
+      <c r="FI25" s="267"/>
+      <c r="FJ25" s="267"/>
+      <c r="FK25" s="267"/>
+      <c r="FL25" s="267"/>
+      <c r="FM25" s="267"/>
+      <c r="FN25" s="268"/>
     </row>
     <row r="26" spans="1:260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="261" t="s">
+      <c r="D26" s="281" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="258" t="s">
+      <c r="E26" s="251" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="258" t="s">
+      <c r="F26" s="251" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="258" t="s">
+      <c r="G26" s="251" t="s">
         <v>274</v>
       </c>
-      <c r="H26" s="258" t="s">
+      <c r="H26" s="251" t="s">
         <v>273</v>
       </c>
-      <c r="I26" s="258" t="s">
+      <c r="I26" s="251" t="s">
         <v>272</v>
       </c>
-      <c r="J26" s="262" t="s">
+      <c r="J26" s="282" t="s">
         <v>391</v>
       </c>
-      <c r="K26" s="282" t="s">
+      <c r="K26" s="250" t="s">
         <v>392</v>
       </c>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="258" t="s">
+      <c r="L26" s="250"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="251" t="s">
         <v>271</v>
       </c>
-      <c r="O26" s="283" t="s">
+      <c r="O26" s="252" t="s">
         <v>270</v>
       </c>
-      <c r="P26" s="283"/>
-      <c r="Q26" s="283"/>
-      <c r="R26" s="283"/>
-      <c r="S26" s="283"/>
-      <c r="T26" s="283"/>
-      <c r="U26" s="283"/>
-      <c r="V26" s="283"/>
-      <c r="W26" s="283"/>
-      <c r="X26" s="283"/>
-      <c r="Y26" s="283"/>
-      <c r="Z26" s="283"/>
-      <c r="AA26" s="284" t="s">
+      <c r="P26" s="252"/>
+      <c r="Q26" s="252"/>
+      <c r="R26" s="252"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="252"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="252"/>
+      <c r="X26" s="252"/>
+      <c r="Y26" s="252"/>
+      <c r="Z26" s="252"/>
+      <c r="AA26" s="253" t="s">
         <v>269</v>
       </c>
-      <c r="AB26" s="284"/>
-      <c r="AC26" s="284"/>
-      <c r="AD26" s="284"/>
-      <c r="AE26" s="284"/>
-      <c r="AF26" s="284"/>
-      <c r="AG26" s="284"/>
-      <c r="AH26" s="284"/>
-      <c r="AI26" s="284"/>
-      <c r="AJ26" s="284"/>
-      <c r="AK26" s="284"/>
-      <c r="AL26" s="284"/>
-      <c r="AM26" s="284" t="s">
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="253" t="s">
         <v>268</v>
       </c>
-      <c r="AN26" s="284"/>
-      <c r="AO26" s="284"/>
-      <c r="AP26" s="284"/>
-      <c r="AQ26" s="284"/>
-      <c r="AR26" s="284"/>
-      <c r="AS26" s="284"/>
-      <c r="AT26" s="284"/>
-      <c r="AU26" s="284"/>
-      <c r="AV26" s="284"/>
-      <c r="AW26" s="284"/>
-      <c r="AX26" s="284"/>
-      <c r="AY26" s="284"/>
-      <c r="AZ26" s="284"/>
-      <c r="BA26" s="284"/>
+      <c r="AN26" s="253"/>
+      <c r="AO26" s="253"/>
+      <c r="AP26" s="253"/>
+      <c r="AQ26" s="253"/>
+      <c r="AR26" s="253"/>
+      <c r="AS26" s="253"/>
+      <c r="AT26" s="253"/>
+      <c r="AU26" s="253"/>
+      <c r="AV26" s="253"/>
+      <c r="AW26" s="253"/>
+      <c r="AX26" s="253"/>
+      <c r="AY26" s="253"/>
+      <c r="AZ26" s="253"/>
+      <c r="BA26" s="253"/>
       <c r="BB26" s="63"/>
       <c r="BC26" s="63"/>
       <c r="BD26" s="63"/>
@@ -14897,26 +14914,26 @@
       <c r="BG26" s="63"/>
       <c r="BH26" s="63"/>
       <c r="BI26" s="63"/>
-      <c r="BJ26" s="286" t="s">
-        <v>507</v>
-      </c>
-      <c r="BK26" s="286"/>
-      <c r="BL26" s="286"/>
-      <c r="BM26" s="286"/>
-      <c r="BN26" s="286"/>
-      <c r="BO26" s="286"/>
-      <c r="BP26" s="286"/>
-      <c r="BQ26" s="286"/>
+      <c r="BJ26" s="255" t="s">
+        <v>505</v>
+      </c>
+      <c r="BK26" s="255"/>
+      <c r="BL26" s="255"/>
+      <c r="BM26" s="255"/>
+      <c r="BN26" s="255"/>
+      <c r="BO26" s="255"/>
+      <c r="BP26" s="255"/>
+      <c r="BQ26" s="255"/>
       <c r="BR26" s="63"/>
       <c r="BS26" s="63"/>
       <c r="BT26" s="63"/>
-      <c r="BU26" s="287" t="s">
-        <v>520</v>
-      </c>
-      <c r="BV26" s="287"/>
-      <c r="BW26" s="287"/>
-      <c r="BX26" s="287"/>
-      <c r="BY26" s="287"/>
+      <c r="BU26" s="256" t="s">
+        <v>518</v>
+      </c>
+      <c r="BV26" s="256"/>
+      <c r="BW26" s="256"/>
+      <c r="BX26" s="256"/>
+      <c r="BY26" s="256"/>
       <c r="BZ26" s="63"/>
       <c r="CA26" s="63"/>
       <c r="CB26" s="63"/>
@@ -14947,110 +14964,110 @@
       <c r="DA26" s="63"/>
       <c r="DB26" s="63"/>
       <c r="DC26" s="63"/>
-      <c r="DD26" s="278" t="s">
-        <v>541</v>
-      </c>
-      <c r="DE26" s="278"/>
-      <c r="DF26" s="278"/>
-      <c r="DG26" s="278"/>
-      <c r="DH26" s="278"/>
-      <c r="DI26" s="278"/>
-      <c r="DJ26" s="278"/>
-      <c r="DK26" s="278"/>
-      <c r="DL26" s="278"/>
-      <c r="DM26" s="278"/>
-      <c r="DN26" s="278"/>
-      <c r="DO26" s="278"/>
-      <c r="DP26" s="278"/>
-      <c r="DQ26" s="278"/>
-      <c r="DR26" s="278"/>
-      <c r="DS26" s="278"/>
-      <c r="DT26" s="278"/>
-      <c r="DU26" s="278"/>
-      <c r="DV26" s="243" t="s">
+      <c r="DD26" s="275" t="s">
+        <v>539</v>
+      </c>
+      <c r="DE26" s="275"/>
+      <c r="DF26" s="275"/>
+      <c r="DG26" s="275"/>
+      <c r="DH26" s="275"/>
+      <c r="DI26" s="275"/>
+      <c r="DJ26" s="275"/>
+      <c r="DK26" s="275"/>
+      <c r="DL26" s="275"/>
+      <c r="DM26" s="275"/>
+      <c r="DN26" s="275"/>
+      <c r="DO26" s="275"/>
+      <c r="DP26" s="275"/>
+      <c r="DQ26" s="275"/>
+      <c r="DR26" s="275"/>
+      <c r="DS26" s="275"/>
+      <c r="DT26" s="275"/>
+      <c r="DU26" s="275"/>
+      <c r="DV26" s="274" t="s">
         <v>207</v>
       </c>
-      <c r="DW26" s="243"/>
-      <c r="DX26" s="243"/>
-      <c r="DY26" s="264" t="s">
+      <c r="DW26" s="274"/>
+      <c r="DX26" s="274"/>
+      <c r="DY26" s="260" t="s">
         <v>206</v>
       </c>
-      <c r="DZ26" s="265"/>
-      <c r="EA26" s="265"/>
-      <c r="EB26" s="265"/>
-      <c r="EC26" s="265"/>
-      <c r="ED26" s="265"/>
-      <c r="EE26" s="265"/>
-      <c r="EF26" s="265"/>
-      <c r="EG26" s="265"/>
-      <c r="EH26" s="265"/>
-      <c r="EI26" s="265"/>
-      <c r="EJ26" s="265"/>
-      <c r="EK26" s="265"/>
-      <c r="EL26" s="265"/>
-      <c r="EM26" s="265"/>
-      <c r="EN26" s="265"/>
-      <c r="EO26" s="279" t="s">
+      <c r="DZ26" s="261"/>
+      <c r="EA26" s="261"/>
+      <c r="EB26" s="261"/>
+      <c r="EC26" s="261"/>
+      <c r="ED26" s="261"/>
+      <c r="EE26" s="261"/>
+      <c r="EF26" s="261"/>
+      <c r="EG26" s="261"/>
+      <c r="EH26" s="261"/>
+      <c r="EI26" s="261"/>
+      <c r="EJ26" s="261"/>
+      <c r="EK26" s="261"/>
+      <c r="EL26" s="261"/>
+      <c r="EM26" s="261"/>
+      <c r="EN26" s="261"/>
+      <c r="EO26" s="277" t="s">
         <v>205</v>
       </c>
-      <c r="EP26" s="279"/>
-      <c r="EQ26" s="279"/>
-      <c r="ER26" s="279"/>
-      <c r="ES26" s="279"/>
-      <c r="ET26" s="279"/>
-      <c r="EU26" s="280" t="s">
+      <c r="EP26" s="277"/>
+      <c r="EQ26" s="277"/>
+      <c r="ER26" s="277"/>
+      <c r="ES26" s="277"/>
+      <c r="ET26" s="277"/>
+      <c r="EU26" s="257" t="s">
         <v>204</v>
       </c>
-      <c r="EV26" s="280"/>
-      <c r="EW26" s="280"/>
-      <c r="EX26" s="280"/>
-      <c r="EY26" s="280" t="s">
+      <c r="EV26" s="257"/>
+      <c r="EW26" s="257"/>
+      <c r="EX26" s="257"/>
+      <c r="EY26" s="257" t="s">
         <v>203</v>
       </c>
-      <c r="EZ26" s="280"/>
-      <c r="FA26" s="280"/>
-      <c r="FB26" s="280"/>
-      <c r="FC26" s="280" t="s">
+      <c r="EZ26" s="257"/>
+      <c r="FA26" s="257"/>
+      <c r="FB26" s="257"/>
+      <c r="FC26" s="257" t="s">
         <v>202</v>
       </c>
-      <c r="FD26" s="280"/>
-      <c r="FE26" s="280"/>
-      <c r="FF26" s="280"/>
-      <c r="FG26" s="280"/>
-      <c r="FH26" s="280"/>
-      <c r="FI26" s="280" t="s">
+      <c r="FD26" s="257"/>
+      <c r="FE26" s="257"/>
+      <c r="FF26" s="257"/>
+      <c r="FG26" s="257"/>
+      <c r="FH26" s="257"/>
+      <c r="FI26" s="257" t="s">
         <v>201</v>
       </c>
-      <c r="FJ26" s="280"/>
-      <c r="FK26" s="280"/>
-      <c r="FL26" s="280"/>
-      <c r="FM26" s="280"/>
+      <c r="FJ26" s="257"/>
+      <c r="FK26" s="257"/>
+      <c r="FL26" s="257"/>
+      <c r="FM26" s="257"/>
       <c r="FN26" s="63"/>
-      <c r="FO26" s="89"/>
-      <c r="FP26" s="89"/>
+      <c r="FO26" s="88"/>
+      <c r="FP26" s="88"/>
       <c r="FQ26" t="s">
         <v>210</v>
       </c>
       <c r="FR26" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="FS26" s="118">
+      <c r="FS26" s="117">
         <f>60*$Z$5</f>
         <v>60</v>
       </c>
-      <c r="FT26" s="118">
+      <c r="FT26" s="117">
         <f>0*$Z$6</f>
         <v>0</v>
       </c>
-      <c r="FU26" s="115">
+      <c r="FU26" s="114">
         <f>$Z$5</f>
         <v>1</v>
       </c>
-      <c r="FV26" s="115">
+      <c r="FV26" s="114">
         <f>$Z$6</f>
         <v>1</v>
       </c>
-      <c r="FW26" s="120">
+      <c r="FW26" s="119">
         <v>0</v>
       </c>
       <c r="FX26" t="s">
@@ -15107,566 +15124,566 @@
       </c>
     </row>
     <row r="27" spans="1:260" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="261"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="262"/>
-      <c r="K27" s="100" t="s">
+      <c r="D27" s="281"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="99" t="s">
         <v>258</v>
       </c>
-      <c r="L27" s="100" t="s">
+      <c r="L27" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="M27" s="100" t="s">
+      <c r="M27" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="N27" s="258"/>
-      <c r="O27" s="176" t="s">
+      <c r="N27" s="251"/>
+      <c r="O27" s="175" t="s">
         <v>330</v>
       </c>
-      <c r="P27" s="176" t="s">
+      <c r="P27" s="175" t="s">
         <v>255</v>
       </c>
-      <c r="Q27" s="176" t="s">
+      <c r="Q27" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="177" t="s">
+      <c r="R27" s="176" t="s">
         <v>254</v>
       </c>
-      <c r="S27" s="178" t="s">
+      <c r="S27" s="177" t="s">
         <v>253</v>
       </c>
-      <c r="T27" s="177" t="s">
+      <c r="T27" s="176" t="s">
         <v>252</v>
       </c>
-      <c r="U27" s="177" t="s">
+      <c r="U27" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="V27" s="177" t="s">
+      <c r="V27" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="178" t="s">
+      <c r="W27" s="177" t="s">
         <v>249</v>
       </c>
-      <c r="X27" s="179" t="s">
+      <c r="X27" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="Y27" s="180" t="s">
+      <c r="Y27" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="Z27" s="176" t="s">
+      <c r="Z27" s="175" t="s">
         <v>246</v>
       </c>
-      <c r="AA27" s="181" t="s">
+      <c r="AA27" s="180" t="s">
         <v>245</v>
       </c>
-      <c r="AB27" s="181" t="s">
+      <c r="AB27" s="180" t="s">
         <v>413</v>
       </c>
-      <c r="AC27" s="181" t="s">
+      <c r="AC27" s="180" t="s">
         <v>243</v>
       </c>
-      <c r="AD27" s="181" t="s">
+      <c r="AD27" s="180" t="s">
         <v>414</v>
       </c>
-      <c r="AE27" s="181" t="s">
+      <c r="AE27" s="180" t="s">
         <v>242</v>
       </c>
-      <c r="AF27" s="181" t="s">
+      <c r="AF27" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="AG27" s="181" t="s">
+      <c r="AG27" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="AH27" s="181" t="s">
+      <c r="AH27" s="180" t="s">
         <v>410</v>
       </c>
-      <c r="AI27" s="181" t="s">
+      <c r="AI27" s="180" t="s">
         <v>411</v>
       </c>
-      <c r="AJ27" s="181" t="s">
+      <c r="AJ27" s="180" t="s">
         <v>412</v>
       </c>
-      <c r="AK27" s="181" t="s">
+      <c r="AK27" s="180" t="s">
         <v>222</v>
       </c>
-      <c r="AL27" s="181" t="s">
+      <c r="AL27" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="AM27" s="181" t="s">
+      <c r="AM27" s="180" t="s">
         <v>239</v>
       </c>
-      <c r="AN27" s="181" t="s">
+      <c r="AN27" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="AO27" s="181" t="s">
+      <c r="AO27" s="180" t="s">
         <v>237</v>
       </c>
-      <c r="AP27" s="181" t="s">
+      <c r="AP27" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="AQ27" s="181" t="s">
+      <c r="AQ27" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="AR27" s="181" t="s">
+      <c r="AR27" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="AS27" s="181" t="s">
+      <c r="AS27" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="AT27" s="181" t="s">
+      <c r="AT27" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="181" t="s">
+      <c r="AU27" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="AV27" s="182" t="s">
-        <v>493</v>
-      </c>
-      <c r="AW27" s="181" t="s">
+      <c r="AV27" s="181" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW27" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="AX27" s="181" t="s">
+      <c r="AX27" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="AY27" s="181" t="s">
+      <c r="AY27" s="180" t="s">
         <v>229</v>
       </c>
-      <c r="AZ27" s="181" t="s">
+      <c r="AZ27" s="180" t="s">
         <v>228</v>
       </c>
-      <c r="BA27" s="181" t="s">
+      <c r="BA27" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="BB27" s="183" t="s">
+      <c r="BB27" s="182" t="s">
+        <v>499</v>
+      </c>
+      <c r="BC27" s="182" t="s">
+        <v>500</v>
+      </c>
+      <c r="BD27" s="182" t="s">
         <v>501</v>
       </c>
-      <c r="BC27" s="183" t="s">
+      <c r="BE27" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF27" s="184" t="s">
+        <v>517</v>
+      </c>
+      <c r="BG27" s="185" t="s">
         <v>502</v>
       </c>
-      <c r="BD27" s="183" t="s">
+      <c r="BH27" s="186" t="s">
+        <v>504</v>
+      </c>
+      <c r="BI27" s="187" t="s">
         <v>503</v>
       </c>
-      <c r="BE27" s="184" t="s">
+      <c r="BJ27" s="180" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK27" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL27" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM27" s="180" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN27" s="188" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO27" s="188" t="s">
+        <v>506</v>
+      </c>
+      <c r="BP27" s="180" t="s">
+        <v>507</v>
+      </c>
+      <c r="BQ27" s="180" t="s">
+        <v>508</v>
+      </c>
+      <c r="BR27" s="186" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS27" s="186" t="s">
+        <v>527</v>
+      </c>
+      <c r="BT27" s="185" t="s">
+        <v>528</v>
+      </c>
+      <c r="BU27" s="187" t="s">
+        <v>217</v>
+      </c>
+      <c r="BV27" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW27" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX27" s="187" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY27" s="187" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ27" s="182" t="s">
+        <v>509</v>
+      </c>
+      <c r="CA27" s="183" t="s">
         <v>223</v>
       </c>
-      <c r="BF27" s="185" t="s">
-        <v>519</v>
-      </c>
-      <c r="BG27" s="186" t="s">
-        <v>504</v>
-      </c>
-      <c r="BH27" s="187" t="s">
+      <c r="CB27" s="183" t="s">
+        <v>520</v>
+      </c>
+      <c r="CC27" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD27" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="CE27" s="180" t="s">
+        <v>521</v>
+      </c>
+      <c r="CF27" s="188" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG27" s="188" t="s">
         <v>506</v>
       </c>
-      <c r="BI27" s="188" t="s">
-        <v>505</v>
-      </c>
-      <c r="BJ27" s="181" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK27" s="187" t="s">
-        <v>222</v>
-      </c>
-      <c r="BL27" s="181" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM27" s="181" t="s">
-        <v>220</v>
-      </c>
-      <c r="BN27" s="189" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO27" s="189" t="s">
+      <c r="CH27" s="180" t="s">
+        <v>507</v>
+      </c>
+      <c r="CI27" s="180" t="s">
         <v>508</v>
       </c>
-      <c r="BP27" s="181" t="s">
-        <v>509</v>
-      </c>
-      <c r="BQ27" s="181" t="s">
-        <v>510</v>
-      </c>
-      <c r="BR27" s="187" t="s">
+      <c r="CJ27" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="BS27" s="187" t="s">
-        <v>529</v>
-      </c>
-      <c r="BT27" s="186" t="s">
-        <v>530</v>
-      </c>
-      <c r="BU27" s="188" t="s">
+      <c r="CK27" s="186" t="s">
+        <v>527</v>
+      </c>
+      <c r="CL27" s="185" t="s">
+        <v>528</v>
+      </c>
+      <c r="CM27" s="187" t="s">
         <v>217</v>
       </c>
-      <c r="BV27" s="188" t="s">
+      <c r="CN27" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="BW27" s="188" t="s">
+      <c r="CO27" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="BX27" s="188" t="s">
+      <c r="CP27" s="187" t="s">
         <v>214</v>
       </c>
-      <c r="BY27" s="188" t="s">
+      <c r="CQ27" s="187" t="s">
         <v>213</v>
       </c>
-      <c r="BZ27" s="183" t="s">
-        <v>511</v>
-      </c>
-      <c r="CA27" s="184" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB27" s="184" t="s">
+      <c r="CR27" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="CS27" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="CT27" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="CU27" s="189" t="s">
+        <v>390</v>
+      </c>
+      <c r="CV27" s="190" t="s">
+        <v>415</v>
+      </c>
+      <c r="CW27" s="190" t="s">
+        <v>416</v>
+      </c>
+      <c r="CX27" s="190" t="s">
+        <v>417</v>
+      </c>
+      <c r="CY27" s="190" t="s">
+        <v>475</v>
+      </c>
+      <c r="CZ27" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="DA27" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="DB27" s="191" t="s">
+        <v>543</v>
+      </c>
+      <c r="DC27" s="89"/>
+      <c r="DD27" s="192" t="s">
+        <v>535</v>
+      </c>
+      <c r="DE27" s="192" t="s">
+        <v>536</v>
+      </c>
+      <c r="DF27" s="193" t="s">
+        <v>559</v>
+      </c>
+      <c r="DG27" s="193" t="s">
+        <v>560</v>
+      </c>
+      <c r="DH27" s="193" t="s">
+        <v>561</v>
+      </c>
+      <c r="DI27" s="194" t="s">
+        <v>547</v>
+      </c>
+      <c r="DJ27" s="194" t="s">
+        <v>537</v>
+      </c>
+      <c r="DK27" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="DL27" s="194" t="s">
+        <v>588</v>
+      </c>
+      <c r="DM27" s="166" t="s">
         <v>522</v>
       </c>
-      <c r="CC27" s="187" t="s">
-        <v>222</v>
-      </c>
-      <c r="CD27" s="181" t="s">
-        <v>221</v>
-      </c>
-      <c r="CE27" s="181" t="s">
+      <c r="DN27" s="166" t="s">
         <v>523</v>
       </c>
-      <c r="CF27" s="189" t="s">
-        <v>219</v>
-      </c>
-      <c r="CG27" s="189" t="s">
-        <v>508</v>
-      </c>
-      <c r="CH27" s="181" t="s">
-        <v>509</v>
-      </c>
-      <c r="CI27" s="181" t="s">
-        <v>510</v>
-      </c>
-      <c r="CJ27" s="187" t="s">
-        <v>218</v>
-      </c>
-      <c r="CK27" s="187" t="s">
-        <v>529</v>
-      </c>
-      <c r="CL27" s="186" t="s">
-        <v>530</v>
-      </c>
-      <c r="CM27" s="188" t="s">
-        <v>217</v>
-      </c>
-      <c r="CN27" s="188" t="s">
-        <v>216</v>
-      </c>
-      <c r="CO27" s="188" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP27" s="188" t="s">
-        <v>214</v>
-      </c>
-      <c r="CQ27" s="188" t="s">
-        <v>213</v>
-      </c>
-      <c r="CR27" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="CS27" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="CT27" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="CU27" s="190" t="s">
-        <v>390</v>
-      </c>
-      <c r="CV27" s="191" t="s">
-        <v>415</v>
-      </c>
-      <c r="CW27" s="191" t="s">
-        <v>416</v>
-      </c>
-      <c r="CX27" s="191" t="s">
-        <v>417</v>
-      </c>
-      <c r="CY27" s="191" t="s">
-        <v>477</v>
-      </c>
-      <c r="CZ27" s="191" t="s">
-        <v>418</v>
-      </c>
-      <c r="DA27" s="192" t="s">
-        <v>419</v>
-      </c>
-      <c r="DB27" s="192" t="s">
+      <c r="DO27" s="166" t="s">
+        <v>524</v>
+      </c>
+      <c r="DP27" s="192" t="s">
+        <v>538</v>
+      </c>
+      <c r="DQ27" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="DR27" s="195" t="s">
+        <v>541</v>
+      </c>
+      <c r="DS27" s="195" t="s">
+        <v>523</v>
+      </c>
+      <c r="DT27" s="195" t="s">
+        <v>524</v>
+      </c>
+      <c r="DU27" s="194" t="s">
+        <v>542</v>
+      </c>
+      <c r="DV27" s="169" t="s">
+        <v>544</v>
+      </c>
+      <c r="DW27" s="169" t="s">
         <v>545</v>
       </c>
-      <c r="DC27" s="90"/>
-      <c r="DD27" s="193" t="s">
-        <v>537</v>
-      </c>
-      <c r="DE27" s="193" t="s">
-        <v>538</v>
-      </c>
-      <c r="DF27" s="194" t="s">
-        <v>561</v>
-      </c>
-      <c r="DG27" s="194" t="s">
+      <c r="DX27" s="170" t="s">
+        <v>518</v>
+      </c>
+      <c r="DY27" s="196" t="s">
+        <v>546</v>
+      </c>
+      <c r="DZ27" s="196" t="s">
+        <v>548</v>
+      </c>
+      <c r="EA27" s="196" t="s">
+        <v>549</v>
+      </c>
+      <c r="EB27" s="197" t="s">
+        <v>551</v>
+      </c>
+      <c r="EC27" s="198" t="s">
+        <v>552</v>
+      </c>
+      <c r="ED27" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="EE27" s="198" t="s">
+        <v>524</v>
+      </c>
+      <c r="EF27" s="198" t="s">
+        <v>554</v>
+      </c>
+      <c r="EG27" s="198" t="s">
+        <v>555</v>
+      </c>
+      <c r="EH27" s="198" t="s">
+        <v>594</v>
+      </c>
+      <c r="EI27" s="198" t="s">
+        <v>595</v>
+      </c>
+      <c r="EJ27" s="199" t="s">
+        <v>592</v>
+      </c>
+      <c r="EK27" s="200" t="s">
+        <v>556</v>
+      </c>
+      <c r="EL27" s="201" t="s">
+        <v>550</v>
+      </c>
+      <c r="EM27" s="202" t="s">
         <v>562</v>
       </c>
-      <c r="DH27" s="194" t="s">
+      <c r="EN27" s="203" t="s">
+        <v>518</v>
+      </c>
+      <c r="EO27" s="200" t="s">
+        <v>557</v>
+      </c>
+      <c r="EP27" s="200" t="s">
+        <v>558</v>
+      </c>
+      <c r="EQ27" s="204" t="s">
+        <v>564</v>
+      </c>
+      <c r="ER27" s="204" t="s">
+        <v>565</v>
+      </c>
+      <c r="ES27" s="204" t="s">
         <v>563</v>
       </c>
-      <c r="DI27" s="195" t="s">
-        <v>549</v>
-      </c>
-      <c r="DJ27" s="195" t="s">
-        <v>539</v>
-      </c>
-      <c r="DK27" s="195" t="s">
+      <c r="ET27" s="205" t="s">
+        <v>518</v>
+      </c>
+      <c r="EU27" s="204" t="s">
+        <v>566</v>
+      </c>
+      <c r="EV27" s="204" t="s">
+        <v>567</v>
+      </c>
+      <c r="EW27" s="204" t="s">
+        <v>568</v>
+      </c>
+      <c r="EX27" s="205" t="s">
+        <v>518</v>
+      </c>
+      <c r="EY27" s="205" t="s">
+        <v>581</v>
+      </c>
+      <c r="EZ27" s="205"/>
+      <c r="FA27" s="205"/>
+      <c r="FB27" s="205" t="s">
+        <v>518</v>
+      </c>
+      <c r="FC27" s="205" t="s">
+        <v>586</v>
+      </c>
+      <c r="FD27" s="206" t="s">
         <v>589</v>
       </c>
-      <c r="DL27" s="195" t="s">
+      <c r="FE27" s="206" t="s">
         <v>590</v>
       </c>
-      <c r="DM27" s="167" t="s">
-        <v>524</v>
-      </c>
-      <c r="DN27" s="167" t="s">
-        <v>525</v>
-      </c>
-      <c r="DO27" s="167" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP27" s="193" t="s">
-        <v>540</v>
-      </c>
-      <c r="DQ27" s="195" t="s">
-        <v>542</v>
-      </c>
-      <c r="DR27" s="196" t="s">
-        <v>543</v>
-      </c>
-      <c r="DS27" s="196" t="s">
-        <v>525</v>
-      </c>
-      <c r="DT27" s="196" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU27" s="195" t="s">
-        <v>544</v>
-      </c>
-      <c r="DV27" s="170" t="s">
-        <v>546</v>
-      </c>
-      <c r="DW27" s="170" t="s">
-        <v>547</v>
-      </c>
-      <c r="DX27" s="171" t="s">
-        <v>520</v>
-      </c>
-      <c r="DY27" s="197" t="s">
-        <v>548</v>
-      </c>
-      <c r="DZ27" s="197" t="s">
-        <v>550</v>
-      </c>
-      <c r="EA27" s="197" t="s">
-        <v>551</v>
-      </c>
-      <c r="EB27" s="198" t="s">
-        <v>553</v>
-      </c>
-      <c r="EC27" s="199" t="s">
-        <v>554</v>
-      </c>
-      <c r="ED27" s="199" t="s">
-        <v>555</v>
-      </c>
-      <c r="EE27" s="199" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF27" s="199" t="s">
-        <v>556</v>
-      </c>
-      <c r="EG27" s="199" t="s">
-        <v>557</v>
-      </c>
-      <c r="EH27" s="199" t="s">
-        <v>596</v>
-      </c>
-      <c r="EI27" s="199" t="s">
+      <c r="FF27" s="206" t="s">
+        <v>591</v>
+      </c>
+      <c r="FG27" s="206" t="s">
+        <v>593</v>
+      </c>
+      <c r="FH27" s="206" t="s">
+        <v>518</v>
+      </c>
+      <c r="FI27" s="205" t="s">
+        <v>582</v>
+      </c>
+      <c r="FJ27" s="205" t="s">
+        <v>583</v>
+      </c>
+      <c r="FK27" s="205" t="s">
+        <v>584</v>
+      </c>
+      <c r="FL27" s="205" t="s">
+        <v>585</v>
+      </c>
+      <c r="FM27" s="205" t="s">
+        <v>518</v>
+      </c>
+      <c r="FN27" s="207" t="s">
+        <v>434</v>
+      </c>
+      <c r="FO27" s="258" t="s">
         <v>597</v>
       </c>
-      <c r="EJ27" s="200" t="s">
-        <v>594</v>
-      </c>
-      <c r="EK27" s="201" t="s">
-        <v>558</v>
-      </c>
-      <c r="EL27" s="202" t="s">
-        <v>552</v>
-      </c>
-      <c r="EM27" s="203" t="s">
-        <v>564</v>
-      </c>
-      <c r="EN27" s="204" t="s">
-        <v>520</v>
-      </c>
-      <c r="EO27" s="201" t="s">
-        <v>559</v>
-      </c>
-      <c r="EP27" s="201" t="s">
-        <v>560</v>
-      </c>
-      <c r="EQ27" s="205" t="s">
-        <v>566</v>
-      </c>
-      <c r="ER27" s="205" t="s">
-        <v>567</v>
-      </c>
-      <c r="ES27" s="205" t="s">
-        <v>565</v>
-      </c>
-      <c r="ET27" s="206" t="s">
-        <v>520</v>
-      </c>
-      <c r="EU27" s="205" t="s">
-        <v>568</v>
-      </c>
-      <c r="EV27" s="205" t="s">
-        <v>569</v>
-      </c>
-      <c r="EW27" s="205" t="s">
-        <v>570</v>
-      </c>
-      <c r="EX27" s="206" t="s">
-        <v>520</v>
-      </c>
-      <c r="EY27" s="206" t="s">
-        <v>583</v>
-      </c>
-      <c r="EZ27" s="206"/>
-      <c r="FA27" s="206"/>
-      <c r="FB27" s="206" t="s">
-        <v>520</v>
-      </c>
-      <c r="FC27" s="206" t="s">
-        <v>588</v>
-      </c>
-      <c r="FD27" s="207" t="s">
-        <v>591</v>
-      </c>
-      <c r="FE27" s="207" t="s">
-        <v>592</v>
-      </c>
-      <c r="FF27" s="207" t="s">
-        <v>593</v>
-      </c>
-      <c r="FG27" s="207" t="s">
-        <v>595</v>
-      </c>
-      <c r="FH27" s="207" t="s">
-        <v>520</v>
-      </c>
-      <c r="FI27" s="206" t="s">
-        <v>584</v>
-      </c>
-      <c r="FJ27" s="206" t="s">
-        <v>585</v>
-      </c>
-      <c r="FK27" s="206" t="s">
-        <v>586</v>
-      </c>
-      <c r="FL27" s="206" t="s">
-        <v>587</v>
-      </c>
-      <c r="FM27" s="206" t="s">
-        <v>520</v>
-      </c>
-      <c r="FN27" s="208" t="s">
-        <v>434</v>
-      </c>
-      <c r="FO27" s="288" t="s">
-        <v>599</v>
-      </c>
-      <c r="FP27" s="288"/>
-      <c r="FS27" s="122">
+      <c r="FP27" s="258"/>
+      <c r="FS27" s="121">
         <f>35*$Z$5</f>
         <v>35</v>
       </c>
-      <c r="FT27" s="119">
+      <c r="FT27" s="118">
         <f>$Z$6</f>
         <v>1</v>
       </c>
-      <c r="FU27" s="116"/>
-      <c r="FV27" s="116"/>
-      <c r="FW27" s="121"/>
-      <c r="GD27" s="109"/>
-      <c r="GE27" s="109"/>
-      <c r="GF27" s="111"/>
-      <c r="GG27" s="112"/>
-      <c r="GH27" s="174"/>
-      <c r="GI27" s="140"/>
-      <c r="GJ27" s="111"/>
-      <c r="GK27" s="112"/>
-      <c r="GL27" s="113"/>
-      <c r="GM27" s="113"/>
-      <c r="GN27" s="113"/>
-      <c r="GO27" s="113"/>
-      <c r="GP27" s="113"/>
-      <c r="GQ27" s="113"/>
-      <c r="HK27" s="285" t="s">
+      <c r="FU27" s="115"/>
+      <c r="FV27" s="115"/>
+      <c r="FW27" s="120"/>
+      <c r="GD27" s="108"/>
+      <c r="GE27" s="108"/>
+      <c r="GF27" s="110"/>
+      <c r="GG27" s="111"/>
+      <c r="GH27" s="173"/>
+      <c r="GI27" s="139"/>
+      <c r="GJ27" s="110"/>
+      <c r="GK27" s="111"/>
+      <c r="GL27" s="112"/>
+      <c r="GM27" s="112"/>
+      <c r="GN27" s="112"/>
+      <c r="GO27" s="112"/>
+      <c r="GP27" s="112"/>
+      <c r="GQ27" s="112"/>
+      <c r="HK27" s="254" t="s">
         <v>422</v>
       </c>
-      <c r="HL27" s="285"/>
-      <c r="HM27" s="285"/>
-      <c r="HN27" s="285"/>
-      <c r="HO27" s="285"/>
-      <c r="HP27" s="285"/>
-      <c r="HQ27" s="285"/>
-      <c r="HR27" s="285"/>
-      <c r="HS27" s="266" t="s">
+      <c r="HL27" s="254"/>
+      <c r="HM27" s="254"/>
+      <c r="HN27" s="254"/>
+      <c r="HO27" s="254"/>
+      <c r="HP27" s="254"/>
+      <c r="HQ27" s="254"/>
+      <c r="HR27" s="254"/>
+      <c r="HS27" s="262" t="s">
         <v>212</v>
       </c>
-      <c r="HT27" s="266"/>
-      <c r="HU27" s="266"/>
-      <c r="HV27" s="266"/>
-      <c r="HW27" s="266"/>
-      <c r="HX27" s="266"/>
-      <c r="HY27" s="266"/>
-      <c r="HZ27" s="266"/>
-      <c r="IA27" s="266"/>
-      <c r="IB27" s="266"/>
-      <c r="IC27" s="281" t="s">
+      <c r="HT27" s="262"/>
+      <c r="HU27" s="262"/>
+      <c r="HV27" s="262"/>
+      <c r="HW27" s="262"/>
+      <c r="HX27" s="262"/>
+      <c r="HY27" s="262"/>
+      <c r="HZ27" s="262"/>
+      <c r="IA27" s="262"/>
+      <c r="IB27" s="262"/>
+      <c r="IC27" s="249" t="s">
         <v>211</v>
       </c>
-      <c r="ID27" s="281"/>
-      <c r="IE27" s="281"/>
-      <c r="IF27" s="281"/>
-      <c r="IG27" s="281"/>
-      <c r="IH27" s="281"/>
-      <c r="II27" s="281"/>
-      <c r="IJ27" s="281"/>
-      <c r="IK27" s="281"/>
-      <c r="IL27" s="281"/>
+      <c r="ID27" s="249"/>
+      <c r="IE27" s="249"/>
+      <c r="IF27" s="249"/>
+      <c r="IG27" s="249"/>
+      <c r="IH27" s="249"/>
+      <c r="II27" s="249"/>
+      <c r="IJ27" s="249"/>
+      <c r="IK27" s="249"/>
+      <c r="IL27" s="249"/>
     </row>
     <row r="28" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="223" t="s">
-        <v>475</v>
+      <c r="C28" s="222" t="s">
+        <v>602</v>
       </c>
       <c r="D28" s="61">
         <f>IF(COUNT($CS$28:CS28)=MATCH(CR28,$CR$28:CR28,0),CR28,"")</f>
         <v>-1</v>
       </c>
-      <c r="E28" s="153" t="str">
+      <c r="E28" s="152" t="str">
         <f>IF(D28="","","АВДТ")</f>
         <v>АВДТ</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="152">
         <f>IF(D28="","",1)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="153" t="str">
+      <c r="G28" s="152" t="str">
         <f>IF(D28="","","АВ")</f>
         <v>АВ</v>
       </c>
@@ -15682,15 +15699,15 @@
         <f ca="1">IF(D28="","",AB28&amp;"кВт; "&amp;P28&amp;"В; "&amp;AC28&amp;"A; "&amp;AD28)</f>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="209" t="e">
+      <c r="K28" s="208" t="e">
         <f>IF(CV28=0,IF($K$23=1,AM28,O28),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="209" t="e">
+      <c r="L28" s="208" t="e">
         <f>IF(CV28=1,IF($K$23=1,AM28,O28),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="209" t="e">
+      <c r="M28" s="208" t="e">
         <f>IF(CV28=2,IF($K$23=1,AM28,O28),"")</f>
         <v>#N/A</v>
       </c>
@@ -15731,13 +15748,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!AT11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!AX11</f>
         <v>1</v>
       </c>
       <c r="X28" s="53">
         <v>1</v>
       </c>
-      <c r="Y28" s="175" t="s">
+      <c r="Y28" s="174" t="s">
         <v>316</v>
       </c>
       <c r="Z28" s="53">
@@ -15771,15 +15788,15 @@
         <f ca="1">IF(D28="","",ROUNDUP((1/1000)*(100/P28)*IF(P28&lt;380,2,SQRT(3))*AC28*AO28*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AP28&amp;AQ28&amp;AR28&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AT28,BDКаб!$B$5:$B$12,0))*AD28 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AP28&amp;AQ28&amp;AR28&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AT28,BDКаб!$B$5:$B$12,0))*SQRT(1-AD28*AD28)),2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AH28" s="105" t="e">
+      <c r="AH28" s="104" t="e">
         <f>IF(CV28=0,IF(CZ28=0,R28,R28+SUMIF(CW28:$CW$700000,O28,AI28:$AI$700000)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="AI28" s="105" t="e">
+      <c r="AI28" s="104" t="e">
         <f>IF(CV28=1,IF(CZ28=0,R28,R28+SUMIF(CW28:$CW$700000,O28,AJ28:$AJ$700000)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="AJ28" s="105" t="e">
+      <c r="AJ28" s="104" t="e">
         <f>IF(CV28=2,R28,"")</f>
         <v>#N/A</v>
       </c>
@@ -15799,7 +15816,7 @@
         <f>IF(AM28="","",AU28&amp;"-"&amp;AS28&amp;"х"&amp;AT28&amp;"мм²")</f>
         <v>#N/A</v>
       </c>
-      <c r="AO28" s="95" t="e">
+      <c r="AO28" s="94" t="e">
         <f>IF(AM28="","",INDEX('&lt;zallcab&gt;CALC'!$X$7:$X$700000,MATCH(AM28,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)))</f>
         <v>#N/A</v>
       </c>
@@ -15837,466 +15854,466 @@
       </c>
       <c r="AX28" s="57"/>
       <c r="AY28" s="57"/>
-      <c r="AZ28" s="175" t="e">
+      <c r="AZ28" s="174" t="e">
         <f ca="1">IF(AM28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AW28,INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AP28&amp;AQ28&amp;AR28&amp;"Z",BDКаб!$B$3:$AH$3,0))),-1)+1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA28" s="175" t="e">
+      <c r="BA28" s="174" t="e">
         <f ca="1">IF(AM28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AM28="","",IF(E28="",T28,AC28)),INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AP28&amp;AQ28&amp;AR28&amp;"I",BDКаб!$B$3:$AH$3,0))),1)+1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB28" s="154" t="str">
+      <c r="BB28" s="153" t="str">
         <f>IF(E28="","",E28)</f>
         <v>АВДТ</v>
       </c>
-      <c r="BC28" s="154">
+      <c r="BC28" s="153">
         <f>IF(F28="","",F28)</f>
         <v>1</v>
       </c>
-      <c r="BD28" s="154" t="e">
+      <c r="BD28" s="153" t="e">
         <f ca="1">IF(AC28="","",AC28)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE28" s="154" t="e">
+      <c r="BE28" s="153" t="e">
         <f ca="1">IF(BB28="","",IF(P28&lt;380,1,3))</f>
         <v>#N/A</v>
       </c>
-      <c r="BF28" s="155">
+      <c r="BF28" s="154">
         <f>IF(BB28="","",IF(F28="",1,IF(MATCH(F28,$F$28:F28,0)=MATCH(F28,$F$28:F28,1),1,"")))</f>
         <v>1</v>
       </c>
-      <c r="BG28" s="155">
+      <c r="BG28" s="154">
         <f ca="1">IF(BF28=1,IF(BB28="","",IF(BC28="",BE28,IF(COUNTIFS($BC$28:$BC$700000,BC28,$BE$28:$BE$700000,3)&gt;0,3,1))),"")</f>
         <v>1</v>
       </c>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="157">
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="156">
         <f ca="1">IF(BF28=1,IF(BH28="",BG28,BH28),"")</f>
         <v>1</v>
       </c>
-      <c r="BJ28" s="158" t="e">
+      <c r="BJ28" s="157" t="e">
         <f ca="1">IF(BF28=1,IF(BB28="","",IF(BC28="",BD28,SUMIFS($BD$28:$BD$500004,$BC$28:$BC$500004,BC28))),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="BK28" s="156">
+      <c r="BK28" s="155">
         <f>IF(BF28=1,IF(BB28="","",1.3),"")</f>
         <v>1.3</v>
       </c>
-      <c r="BL28" s="158" t="e">
+      <c r="BL28" s="157" t="e">
         <f ca="1">IF(BF28=1,IF(BB28="","",IF(BK28="",BJ28*1.3,BK28*BJ28)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="BM28" s="158" t="e">
+      <c r="BM28" s="157" t="e">
         <f ca="1">IF(BF28=1,IF(BB28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BB28&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BL28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BB28&amp;"I",BD!$K$4:$BY$4,0))),-1))),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="BN28" s="156">
+      <c r="BN28" s="155">
         <f>IF(BF28=1,IF(BB28="","",10),"")</f>
         <v>10</v>
       </c>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="158" t="e">
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="157" t="e">
         <f ca="1">IF(BB28="","",IF(BO28="",IF(BM28&gt;=BN28,BM28,BN28),BO28))</f>
         <v>#N/A</v>
       </c>
-      <c r="BQ28" s="158"/>
-      <c r="BR28" s="156" t="str">
+      <c r="BQ28" s="157"/>
+      <c r="BR28" s="155" t="str">
         <f>IF(BF28="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BS28" s="156">
+      <c r="BS28" s="155">
         <f>IF(BF28="","",0)</f>
         <v>0</v>
       </c>
-      <c r="BT28" s="155">
+      <c r="BT28" s="154">
         <f ca="1">IF(BF28=1,BI28+IF(BS28="N",1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="BU28" s="157" t="str">
+      <c r="BU28" s="156" t="str">
         <f ca="1">IF(BF28=1,IF(BS28="N",BI28&amp;"P+N",BI28&amp;"P"),"")</f>
         <v>1P</v>
       </c>
-      <c r="BV28" s="157" t="str">
+      <c r="BV28" s="156" t="str">
         <f>IF(BF28="","",IF(BB28="АВДТ","30мА",IF(BB28="УЗО","30мА","")))</f>
         <v>30мА</v>
       </c>
-      <c r="BW28" s="157" t="e">
+      <c r="BW28" s="156" t="e">
         <f ca="1">IF(BF28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BM28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D28)</f>
         <v>#N/A</v>
       </c>
-      <c r="BX28" s="161" t="e">
+      <c r="BX28" s="160" t="e">
         <f ca="1">IF(BF28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BM28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="BY28" s="160" t="e">
+      <c r="BY28" s="159" t="e">
         <f ca="1">IF(BF28="","",BU28&amp;","&amp;BP28&amp;"А,"&amp;BR28&amp;IF(BV28="","",","&amp;BV28))</f>
         <v>#N/A</v>
       </c>
-      <c r="BZ28" s="210" t="str">
+      <c r="BZ28" s="209" t="str">
         <f>IF(G28=0,"",G28)</f>
         <v>АВ</v>
       </c>
-      <c r="CA28" s="154" t="e">
+      <c r="CA28" s="153" t="e">
         <f ca="1">IF(BZ28="","",IF(P28&lt;380,1,3))</f>
         <v>#N/A</v>
       </c>
-      <c r="CB28" s="154" t="e">
+      <c r="CB28" s="153" t="e">
         <f ca="1">IF(BZ28="","",AC28)</f>
         <v>#N/A</v>
       </c>
-      <c r="CC28" s="156">
+      <c r="CC28" s="155">
         <f>IF(BZ28="","",1.3)</f>
         <v>1.3</v>
       </c>
-      <c r="CD28" s="158" t="e">
+      <c r="CD28" s="157" t="e">
         <f ca="1">IF(BZ28="","",CB28*CC28)</f>
         <v>#N/A</v>
       </c>
-      <c r="CE28" s="158" t="e">
+      <c r="CE28" s="157" t="e">
         <f ca="1">IF(BZ28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(BZ28&amp;"I",BD!$K$4:$CB$4,0))),MATCH(CD28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(BZ28&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
         <v>#N/A</v>
       </c>
-      <c r="CF28" s="156">
+      <c r="CF28" s="155">
         <f>IF(BZ28="","",10)</f>
         <v>10</v>
       </c>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="158" t="e">
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="157" t="e">
         <f ca="1">IF(BZ28="","",IF(CG28="",IF(CE28&gt;=CF28,CE28,CF28),CG28))</f>
         <v>#N/A</v>
       </c>
-      <c r="CI28" s="158"/>
-      <c r="CJ28" s="156" t="str">
+      <c r="CI28" s="157"/>
+      <c r="CJ28" s="155" t="str">
         <f>IF(BZ28="","","C")</f>
         <v>C</v>
       </c>
-      <c r="CK28" s="156">
+      <c r="CK28" s="155">
         <f>IF(BZ28="","",0)</f>
         <v>0</v>
       </c>
-      <c r="CL28" s="155" t="e">
+      <c r="CL28" s="154" t="e">
         <f ca="1">IF(BZ28="","",CA28+IF(CK28="N",1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="CM28" s="157" t="e">
+      <c r="CM28" s="156" t="e">
         <f ca="1">IF(BZ28="","",IF(CK28="N",CA28&amp;"P+N",CA28&amp;"P"))</f>
         <v>#N/A</v>
       </c>
-      <c r="CN28" s="157" t="str">
+      <c r="CN28" s="156" t="str">
         <f>IF(BZ28="","",IF(BZ28="АВДТ","30мА",IF(BZ28="УЗО","30мА","")))</f>
         <v/>
       </c>
-      <c r="CO28" s="157" t="e">
+      <c r="CO28" s="156" t="e">
         <f ca="1">IF(BZ28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"О",BD!$K$4:$CB$4,0))),MATCH(CE28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D28)</f>
         <v>#N/A</v>
       </c>
-      <c r="CP28" s="161" t="e">
+      <c r="CP28" s="160" t="e">
         <f ca="1">IF(BZ28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"М",BD!$K$4:$CB$4,0))),MATCH(CE28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="CQ28" s="160" t="e">
+      <c r="CQ28" s="159" t="e">
         <f ca="1">IF(BZ28="","",CM28&amp;","&amp;CH28&amp;"А,"&amp;CJ28&amp;IF(CN28="","",","&amp;CN28&amp;"мА"))</f>
         <v>#N/A</v>
       </c>
-      <c r="CR28" s="211">
-        <f>'&lt;zalldev&gt;EXPORT'!AQ11</f>
+      <c r="CR28" s="210">
+        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
         <v>-1</v>
       </c>
-      <c r="CS28" s="211">
+      <c r="CS28" s="210">
         <f>COUNT($CR$28:CR28)</f>
         <v>1</v>
       </c>
-      <c r="CT28" s="211" t="e">
+      <c r="CT28" s="210" t="e">
         <f ca="1">INDIRECT("'"&amp;O28&amp;"'!"&amp;"X14")</f>
         <v>#REF!</v>
       </c>
-      <c r="CU28" s="211" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AR11</f>
+      <c r="CU28" s="210" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AV11</f>
         <v>-1</v>
       </c>
-      <c r="CV28" s="212" t="e">
-        <f>'&lt;zalldev&gt;EXPORT'!AZ11-$T$16-1</f>
+      <c r="CV28" s="211" t="e">
+        <f>'&lt;zalldev&gt;EXPORT'!BD11-$T$16-1</f>
         <v>#N/A</v>
       </c>
-      <c r="CW28" s="212">
+      <c r="CW28" s="211">
         <f>'&lt;zalldev&gt;EXPORT'!J11</f>
         <v>0</v>
       </c>
-      <c r="CX28" s="212">
+      <c r="CX28" s="211">
         <f>'&lt;zalldev&gt;EXPORT'!M11*1</f>
         <v>0</v>
       </c>
-      <c r="CY28" s="212" t="str">
+      <c r="CY28" s="211" t="str">
         <f>CW28&amp;"."&amp;CX28</f>
         <v>0.0</v>
       </c>
-      <c r="CZ28" s="212">
-        <f>'&lt;zalldev&gt;EXPORT'!AY11*1</f>
-        <v>0</v>
-      </c>
-      <c r="DA28" s="213">
+      <c r="CZ28" s="211">
+        <f>'&lt;zalldev&gt;EXPORT'!BC11*1</f>
+        <v>0</v>
+      </c>
+      <c r="DA28" s="212">
         <f>IF(COUNT($CR$28:CR28)=1,1,IF(INDEX($CR$28:CR28,COUNT($CR$28:CR28)-1)=INDEX($CR$28:CR28,COUNT($CR$28:CR28)),0,COUNT($CR$28:CR28)))*1</f>
         <v>1</v>
       </c>
-      <c r="DB28" s="213">
+      <c r="DB28" s="212">
         <f>IF(CZ28&gt;0,IF(CV28=0,SUMIFS(CU28:$CU$700000,CR28:$CR$700000,CR28,CV28:$CV$700000,1),0),0)*1</f>
         <v>0</v>
       </c>
-      <c r="DC28" s="214">
+      <c r="DC28" s="213">
         <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
         <v>0</v>
       </c>
-      <c r="DD28" s="215">
+      <c r="DD28" s="214">
         <f>IF(SUMIF($CR$28:$CR$700000,CR28,$CZ$28:$CZ$700000)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DE28" s="215">
+      <c r="DE28" s="214">
         <f>IF($H$5=CW28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="DF28" s="216" t="e">
+      <c r="DF28" s="215" t="e">
         <f>IF(CV28=0,IF(DD28=0,0,CY28),IF(CV28=1,INDEX($DF$28:DF28,CS28-1),IF(CV28=2,INDEX($DF$28:DF28,CS28-1),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="DG28" s="216">
+      <c r="DG28" s="215">
         <f>IF(DD28=1,MATCH(DF28,$DF$28:DF28,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DH28" s="216">
+      <c r="DH28" s="215">
         <f>IF(COUNTIF(CY28:$CY$699946,DF28)&gt;0,IF(DG28=CS28,0,1),0)</f>
         <v>0</v>
       </c>
-      <c r="DI28" s="215" t="e">
+      <c r="DI28" s="214" t="e">
         <f>IF(CV28=0,IF(CZ28&gt;0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="DJ28" s="215">
+      <c r="DJ28" s="214">
         <f>IF(SUMIF($DM$28:$DM$700000,O28,$DQ$28:$DQ$700000)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DK28" s="217" t="e">
+      <c r="DK28" s="216" t="e">
         <f>IF(DF28=0,0,IF(SUMIF($DF$28:$DF$700000,DF28,$DJ$28:$DJ$700000)&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DL28" s="217" t="e">
+      <c r="DL28" s="216" t="e">
         <f>IF(DF28=0,0,IF(SUMIF($EC$28:$EC$700000,EC28,$DQ$28:$DQ$700000)&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DM28" s="168" t="e">
+      <c r="DM28" s="167" t="e">
         <f>IF(CV28=1,CW28,IF(CV28=2,INDEX($DM$28:DM28,CS28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DN28" s="168" t="e">
+      <c r="DN28" s="167" t="e">
         <f>IF(CV28=1,MATCH(DM28,$DM$28:DM28,0),IF(CV28=2,INDEX($DN$28:DN28,CS28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DO28" s="168">
+      <c r="DO28" s="167">
         <f>COUNTIF($DM$28:$DM$700000,DM28)</f>
         <v>1</v>
       </c>
-      <c r="DP28" s="215" t="e">
+      <c r="DP28" s="214" t="e">
         <f>IF(DM28=0,0,IF(CS28&gt;=DN28,IF(CS28&lt;=DN28+DO28,1,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DQ28" s="215">
+      <c r="DQ28" s="214">
         <f>IF(CZ28&gt;0,IF(CV28=1,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DR28" s="168" t="e">
+      <c r="DR28" s="167" t="e">
         <f>IF(CV28=2,CW28,IF(CV28=2,INDEX($DR$28:DR28,CS28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DS28" s="168" t="e">
+      <c r="DS28" s="167" t="e">
         <f>IF(CV28=2,MATCH(DR28,$DR$28:DR28,0),IF(CV28=2,INDEX($DS$28:DS28,CS28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DT28" s="168">
+      <c r="DT28" s="167">
         <f>COUNTIF($DR$28:$DR$700000,DR28)</f>
         <v>1</v>
       </c>
-      <c r="DU28" s="215" t="e">
+      <c r="DU28" s="214" t="e">
         <f>IF(DR28=0,0,IF(CS28&gt;=DS28,IF(CS28&lt;=DS28+DT28,1,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DV28" s="172">
+      <c r="DV28" s="171">
         <f>IF(MATCH(CR28,$CR$28:CR28,0)=COUNT($CR$28:CR28),COUNTIFS(F28:$F$120004,F28),0)*1</f>
         <v>1</v>
       </c>
-      <c r="DW28" s="172">
+      <c r="DW28" s="171">
         <f>IF(INDEX($DV$28:DV28,MATCH(CR28,$CR$28:CR28,0))&gt;1,IF(DV28=0,2,1),IF(DV28=1,1,0))*1</f>
         <v>1</v>
       </c>
-      <c r="DX28" s="173" t="e">
+      <c r="DX28" s="172" t="e">
         <f ca="1">IF(H28&lt;&gt;"",0,IF(DV28=0,IF(DW28=0,3,DW28),DW28))</f>
         <v>#N/A</v>
       </c>
-      <c r="DY28" s="218" t="e">
+      <c r="DY28" s="217" t="e">
         <f t="shared" ref="DY28" ca="1" si="5">IF(DX28=0,1,IF(DX28=1,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DZ28" s="218" t="e">
+      <c r="DZ28" s="217" t="e">
         <f>IF(SUM(EA28,EL28)&gt;0,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EA28" s="218" t="e">
+      <c r="EA28" s="217" t="e">
         <f>INDEX($DI$28:DI28,CS28-1)</f>
         <v>#N/A</v>
       </c>
-      <c r="EB28" s="218">
+      <c r="EB28" s="217">
         <f>IF(INDEX($DJ$28:DJ28,CS28-1)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="EC28" s="219" t="e">
+      <c r="EC28" s="218" t="e">
         <f>IF(DM28=0,0,IF(INDEX($DM$28:DM28,CS28-1)=0,CY28,IF(DM28=INDEX($DM$28:DM28,CS28-1),IF(DM28=CW28,CY28,INDEX($EC$28:EC28,CS28-1)),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="ED28" s="219" t="e">
+      <c r="ED28" s="218" t="e">
         <f>IF(EC28=0,0,MATCH(EC28,$CY$28:CY28,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EE28" s="219">
+      <c r="EE28" s="218">
         <f>COUNTIF(CY28:$CY$700000,EC28)</f>
         <v>0</v>
       </c>
-      <c r="EF28" s="219" t="e">
+      <c r="EF28" s="218" t="e">
         <f>IF(EC28=0,0,IF(INDEX($EC$28:EC28,CS28-1)=EC28,0,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="EG28" s="219" t="e">
+      <c r="EG28" s="218" t="e">
         <f>IF(EF28=1,0,IF(EE28&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EH28" s="219" t="e">
+      <c r="EH28" s="218" t="e">
         <f>IF(EG28=1,IF(INDEX($EC$28:EC28,CS28-2)=EC28,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EI28" s="219" t="e">
+      <c r="EI28" s="218" t="e">
         <f>IF(INDEX($EH$28:EH28,CS28-1)=1,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EJ28" s="217" t="e">
+      <c r="EJ28" s="216" t="e">
         <f>IF(EC28=0,0,SUMIF(EC28:$EC$700000,EC28,DQ28:$DQ$700000))</f>
         <v>#N/A</v>
       </c>
-      <c r="EK28" s="219" t="e">
+      <c r="EK28" s="218" t="e">
         <f>IF(EH28&gt;0,IF(INDEX($DM$28:DM28,CS28-1)=DM28,IF(DR28=0,IF(INDEX($DR$28:DR28,CS28-1)=DR28,0,1),0),0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EL28" s="218">
+      <c r="EL28" s="217">
         <f>INDEX($DQ$28:DQ28,CS28-1)</f>
         <v>0</v>
       </c>
-      <c r="EM28" s="220">
+      <c r="EM28" s="219">
         <f>IF(DH28=0,0,IF(CS28-1=DG28,1,0))</f>
         <v>0</v>
       </c>
-      <c r="EN28" s="221" t="e">
+      <c r="EN28" s="220" t="e">
         <f>_xlfn.IFS(IF(DK28,IF(EH28,1,0),0),IF(EK28=1,0,IF(EI28=0,3,5)),EB28=1,IF(EM28=1,4,2),1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EO28" s="175" t="e">
+      <c r="EO28" s="174" t="e">
         <f>IF(DM28=0,0,IF(CS28&gt;=DN28,IF(CS28&lt;=DN28+DO28,IF(SUMIF($DM$28:$DM$700000,DM28,$DU$28:$DU$700000)&gt;0,1,0),0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EP28" s="218" t="e">
+      <c r="EP28" s="217" t="e">
         <f>IF(EO28=0,0,IF(CS28&gt;=DN28,IF(CS28&lt;=DN28+DO28,IF(SUMIF(DM28:$DM$700000,DM28,EF28:$EF$700000)&gt;0,1,0),0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EQ28" s="221" t="e">
+      <c r="EQ28" s="220" t="e">
         <f>IF(EK28&gt;0,IF(EP28&gt;0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="ER28" s="221" t="e">
+      <c r="ER28" s="220" t="e">
         <f>IF(DP28&gt;0,IF(EN28=2,0,IF(EP28&gt;0,IF(DZ28=0,1,0),0)),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="ES28" s="221">
+      <c r="ES28" s="220">
         <f>IF(DH28=0,0,IF(CS28-1=DG28,0,DH28))</f>
         <v>0</v>
       </c>
-      <c r="ET28" s="218" t="e">
+      <c r="ET28" s="217" t="e">
         <f>_xlfn.IFS(EQ28,4,EK28&gt;0,3,ER28,2,ES28,IF(EL28&gt;0,0,1),1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EU28" s="222">
+      <c r="EU28" s="221">
         <f>IF(DA28&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="EV28" s="222">
+      <c r="EV28" s="221">
         <f>IF(DD28=1,IF(DE28=1,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="EW28" s="222" t="e">
+      <c r="EW28" s="221" t="e">
         <f>IF(DU28=0,IF(DP28=1,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EX28" s="222">
+      <c r="EX28" s="221">
         <f>_xlfn.IFS(EU28,4,IF(EF28,IF(DK28,1,0),0),2,EV28,1,DL28=0,0,IF(EW28=1,IF(EE28&gt;0,1,0),0),3,1,0)</f>
         <v>4</v>
       </c>
-      <c r="EY28" s="222">
+      <c r="EY28" s="221">
         <f>IF(INDEX($CY$28:CY28,CS28-1)=CY28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="EZ28" s="222"/>
-      <c r="FA28" s="222"/>
-      <c r="FB28" s="222" t="e">
+      <c r="EZ28" s="221"/>
+      <c r="FA28" s="221"/>
+      <c r="FB28" s="221" t="e">
         <f>_xlfn.IFS(DI28,0,DZ28,0,EU28,0,EN28=5,0,EY28,3,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FC28" s="222" t="e">
+      <c r="FC28" s="221" t="e">
         <f>_xlfn.IFS(CZ28&gt;0,0,DU28,1,DP28,1,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FD28" s="218" t="e">
+      <c r="FD28" s="217" t="e">
         <f>IF(FC28=1,CY28,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FE28" s="218" t="e">
+      <c r="FE28" s="217" t="e">
         <f>IF(FD28=0,0,IF(INDEX($FD$28:FD28,CS28-1)=FD28,0,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="FF28" s="218" t="e">
+      <c r="FF28" s="217" t="e">
         <f>IF(FD28=0,0,SUMIF(CW28:$CW$700000,CW28,FE28:$FE$700000))</f>
         <v>#N/A</v>
       </c>
-      <c r="FG28" s="218" t="e">
+      <c r="FG28" s="217" t="e">
         <f>IF(DP28=1,IF(DK28=1,IF(DU28=0,IF(CZ28&gt;0,0,1),0),0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FH28" s="218" t="e">
+      <c r="FH28" s="217" t="e">
         <f>_xlfn.IFS(DI28,0,DZ28,0,IF(FF28&gt;0,IF(FG28=0,1,0),0),4,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FI28" s="222" t="e">
+      <c r="FI28" s="221" t="e">
         <f>IF(FB28=3,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FJ28" s="222">
+      <c r="FJ28" s="221">
         <f>IF(EX28=4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="FK28" s="222">
+      <c r="FK28" s="221">
         <f>IF(DE28=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="FL28" s="222" t="e">
+      <c r="FL28" s="221" t="e">
         <f>IF(DZ28=1,IF(CZ28=0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FM28" s="222" t="e">
+      <c r="FM28" s="221" t="e">
         <f>_xlfn.IFS(DI28,0,FI28,3,FL28,5,FJ28,5,IF(FF28=1,IF(FH28=4,1,0),0),4,FG28,5,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FN28" s="213">
+      <c r="FN28" s="212">
         <f>IF(CS28=1,0,IF(CZ28=0,IF(INDEX($CZ$28:$CZ$700000,CS28-1)&gt;0,1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="FO28" s="123" t="e">
+      <c r="FO28" s="122" t="e">
         <f>"&lt;zsetformulatocell toSheet=[zallcabCALC]  toCell=["&amp;ADDRESS(MATCH(AM28,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)+ROW('&lt;zallcab&gt;CALC'!$D$7)-1,COLUMN('&lt;zallcab&gt;CALC'!Y7)) &amp; "] formula=[fromSheet!"&amp;ADDRESS(ROW(AU28),COLUMN(AU28))&amp;"]"</f>
         <v>#N/A</v>
       </c>
-      <c r="FP28" s="123" t="e">
+      <c r="FP28" s="122" t="e">
         <f>"&lt;zsetformulatocell toSheet=[zallcabCALC]  toCell=["&amp;ADDRESS(MATCH(AM28,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)+ROW('&lt;zallcab&gt;CALC'!$D$7)-1,COLUMN('&lt;zallcab&gt;CALC'!Z7)) &amp; "] formula=[fromSheet!"&amp;ADDRESS(ROW(AV28),COLUMN(AV28))&amp;"]"</f>
         <v>#N/A</v>
       </c>
@@ -16306,22 +16323,22 @@
       <c r="FR28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="FS28" s="122">
+      <c r="FS28" s="121">
         <f>$FS$27+25*$Z$5*CS28-COUNTIF($FN$28:FN28,1)*25*$Z$5</f>
         <v>60</v>
       </c>
-      <c r="FT28" s="118">
-        <v>0</v>
-      </c>
-      <c r="FU28" s="152">
+      <c r="FT28" s="117">
+        <v>0</v>
+      </c>
+      <c r="FU28" s="151">
         <f>$Z$5</f>
         <v>1</v>
       </c>
-      <c r="FV28" s="152">
+      <c r="FV28" s="151">
         <f>$Z$6</f>
         <v>1</v>
       </c>
-      <c r="FW28" s="120">
+      <c r="FW28" s="119">
         <v>0</v>
       </c>
       <c r="FX28" s="1" t="s">
@@ -16331,94 +16348,94 @@
         <f ca="1">IF(Q28="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
-      <c r="FZ28" s="169" t="s">
+      <c r="FZ28" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="GA28" s="169" t="e">
+      <c r="GA28" s="168" t="e">
         <f ca="1">"INTEGER_"&amp;DX28</f>
         <v>#N/A</v>
       </c>
-      <c r="GB28" s="110" t="s">
-        <v>527</v>
-      </c>
-      <c r="GC28" s="164" t="e">
+      <c r="GB28" s="109" t="s">
+        <v>525</v>
+      </c>
+      <c r="GC28" s="163" t="e">
         <f ca="1">IF(H28="",IF(GA28&lt;&gt;"INTEGER_0","INTEGER_2","INTEGER_0"),IF(BS28&lt;&gt;"N","INTEGER_1","INTEGER_2"))</f>
         <v>#N/A</v>
       </c>
-      <c r="GD28" s="110" t="s">
-        <v>528</v>
-      </c>
-      <c r="GE28" s="163" t="e">
+      <c r="GD28" s="109" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE28" s="162" t="e">
         <f ca="1">IF(GA28="INTEGER_2","INTEGER_2",IF(GA28="INTEGER_3","INTEGER_2","INTEGER_0"))</f>
         <v>#N/A</v>
       </c>
-      <c r="GF28" s="111" t="s">
+      <c r="GF28" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="GG28" s="159" t="e">
+      <c r="GG28" s="158" t="e">
         <f>"INTEGER_"&amp;EN28</f>
         <v>#N/A</v>
       </c>
-      <c r="GH28" s="174" t="s">
+      <c r="GH28" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="GI28" s="174" t="e">
+      <c r="GI28" s="173" t="e">
         <f>"INTEGER_"&amp;ET28</f>
         <v>#N/A</v>
       </c>
-      <c r="GJ28" s="111" t="s">
+      <c r="GJ28" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="GK28" s="122" t="str">
+      <c r="GK28" s="121" t="str">
         <f>"INTEGER_"&amp;EX28</f>
         <v>INTEGER_4</v>
       </c>
-      <c r="GL28" s="114" t="s">
+      <c r="GL28" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="GM28" s="122" t="e">
+      <c r="GM28" s="121" t="e">
         <f>"INTEGER_"&amp;FB28</f>
         <v>#N/A</v>
       </c>
-      <c r="GN28" s="114" t="s">
+      <c r="GN28" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="GO28" s="114" t="e">
+      <c r="GO28" s="113" t="e">
         <f>"INTEGER_"&amp;FH28</f>
         <v>#N/A</v>
       </c>
-      <c r="GP28" s="114" t="s">
+      <c r="GP28" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="GQ28" s="122" t="e">
+      <c r="GQ28" s="121" t="e">
         <f>"INTEGER_"&amp;FM28</f>
         <v>#N/A</v>
       </c>
       <c r="GR28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="GS28" s="122">
+      <c r="GS28" s="121">
         <f>IF(CZ28&gt;0,"",IF(W28&gt;1,O28&amp;"("&amp;W28&amp;"шт.)",O28))</f>
         <v>0</v>
       </c>
       <c r="GT28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GU28" s="122">
+      <c r="GU28" s="121">
         <f ca="1">IF(CZ28&gt;0,"",R28)</f>
         <v>0</v>
       </c>
       <c r="GV28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GW28" s="122" t="e">
+      <c r="GW28" s="121" t="e">
         <f ca="1">IF(CZ28&gt;0,"",T28)</f>
         <v>#N/A</v>
       </c>
       <c r="GX28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="GY28" s="122" t="e">
+      <c r="GY28" s="121" t="e">
         <f ca="1">IF(CZ28&gt;0,"",Z28&amp;"\P~"&amp;P28&amp;"V")</f>
         <v>#N/A</v>
       </c>
@@ -16432,21 +16449,21 @@
       <c r="HB28" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="HC28" s="122" t="str">
+      <c r="HC28" s="121" t="str">
         <f>IFERROR(_xlfn.IFS(IF(DB28&gt;0,1,0),AN28,IF(CZ28&gt;0,IF(EF28,1,0),0),AN28,IF(DB28=0,1,0),""),AN28)</f>
         <v/>
       </c>
       <c r="HD28" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="HE28" s="122" t="str">
+      <c r="HE28" s="121" t="str">
         <f>IF(HC28="","","("&amp;AM28&amp;") L="&amp;AO28&amp;"м")</f>
         <v/>
       </c>
       <c r="HF28" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="HG28" s="122" t="e">
+      <c r="HG28" s="121" t="e">
         <f>IF(HC28="",AN28,"")</f>
         <v>#N/A</v>
       </c>
@@ -16454,41 +16471,41 @@
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="HI28" s="122" t="e">
+      <c r="HI28" s="121" t="e">
         <f>IF(HE28="",IF(AO28&lt;&gt;"","("&amp;AM28&amp;") L="&amp;AO28&amp;"м"," "),"")</f>
         <v>#N/A</v>
       </c>
       <c r="HJ28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="HK28" s="152" t="s">
+      <c r="HK28" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="HL28" s="122" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AJ11</f>
+      <c r="HL28" s="121" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AM11</f>
         <v>&lt;zcadnameblock&gt;</v>
       </c>
-      <c r="HM28" s="122" t="e">
+      <c r="HM28" s="121" t="e">
         <f>FS28+12.5*$Z$5+INDEX(BDUGO!$D$4:$D$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))*$Z$5</f>
         <v>#N/A</v>
       </c>
-      <c r="HN28" s="122" t="e">
+      <c r="HN28" s="121" t="e">
         <f>FT28+42.5*$Z$6+INDEX(BDUGO!$E$4:$E$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))*$Z$6</f>
         <v>#N/A</v>
       </c>
-      <c r="HO28" s="122" t="e">
+      <c r="HO28" s="121" t="e">
         <f>IF(INDEX(BDUGO!$F$4:$F$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))=0,1,INDEX(BDUGO!$F$4:$F$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0)))*$Z$5</f>
         <v>#N/A</v>
       </c>
-      <c r="HP28" s="122" t="e">
+      <c r="HP28" s="121" t="e">
         <f>IF(INDEX(BDUGO!$G$4:$G$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))=0,1,INDEX(BDUGO!$G$4:$G$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0)))*$Z$6</f>
         <v>#N/A</v>
       </c>
-      <c r="HQ28" s="122" t="e">
+      <c r="HQ28" s="121" t="e">
         <f>INDEX(BDUGO!$H$4:$H$31,MATCH(IF(CZ28&gt;0,"UU","")&amp;HL28,BDUGO!$C$4:$C$31,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="HR28" s="152" t="s">
+      <c r="HR28" s="151" t="s">
         <v>192</v>
       </c>
       <c r="HS28" s="1" t="e">
@@ -16573,18 +16590,43 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="IC27:IL27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:Z26"/>
-    <mergeCell ref="AA26:AL26"/>
-    <mergeCell ref="AM26:BA26"/>
-    <mergeCell ref="HK27:HR27"/>
-    <mergeCell ref="BJ26:BQ26"/>
-    <mergeCell ref="BU26:BY26"/>
-    <mergeCell ref="EU26:EX26"/>
-    <mergeCell ref="FI26:FM26"/>
-    <mergeCell ref="FO27:FP27"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
     <mergeCell ref="P16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="DY26:EN26"/>
@@ -16601,43 +16643,18 @@
     <mergeCell ref="EO26:ET26"/>
     <mergeCell ref="EY26:FB26"/>
     <mergeCell ref="FC26:FH26"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="IC27:IL27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:Z26"/>
+    <mergeCell ref="AA26:AL26"/>
+    <mergeCell ref="AM26:BA26"/>
+    <mergeCell ref="HK27:HR27"/>
+    <mergeCell ref="BJ26:BQ26"/>
+    <mergeCell ref="BU26:BY26"/>
+    <mergeCell ref="EU26:EX26"/>
+    <mergeCell ref="FI26:FM26"/>
+    <mergeCell ref="FO27:FP27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="P28">
@@ -16944,40 +16961,40 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R2" s="81">
+      <c r="R2" s="80">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="C3" s="65"/>
-      <c r="D3" s="289" t="s">
+      <c r="D3" s="244" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244" t="s">
         <v>333</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
       <c r="J3" s="75" t="s">
         <v>336</v>
       </c>
       <c r="K3" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="L3" s="289" t="s">
+      <c r="L3" s="244" t="s">
         <v>335</v>
       </c>
-      <c r="M3" s="289"/>
-      <c r="N3" s="289"/>
-      <c r="O3" s="290" t="s">
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="292" t="s">
         <v>343</v>
       </c>
-      <c r="P3" s="290"/>
-      <c r="Q3" s="290"/>
-      <c r="R3" s="82" t="s">
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="81" t="s">
         <v>344</v>
       </c>
     </row>
@@ -17016,16 +17033,16 @@
       <c r="N4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="81"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="74" t="s">
@@ -17042,10 +17059,10 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
       <c r="N5" s="53"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="82"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="81"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C6" s="62" t="s">
@@ -17077,7 +17094,7 @@
       </c>
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
-      <c r="R6" s="82">
+      <c r="R6" s="81">
         <v>1</v>
       </c>
       <c r="S6" t="s">
@@ -17107,41 +17124,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="236"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="237"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -18082,49 +18099,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="238" t="s">
+      <c r="C2" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="240"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -18588,592 +18605,592 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="241" t="s">
         <v>424</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="243"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="116" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="116" t="s">
         <v>427</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="116" t="s">
         <v>428</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="116" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="166">
-        <v>0</v>
-      </c>
-      <c r="E4" s="166">
-        <v>0</v>
-      </c>
-      <c r="F4" s="166">
+      <c r="D4" s="165">
+        <v>0</v>
+      </c>
+      <c r="E4" s="165">
+        <v>0</v>
+      </c>
+      <c r="F4" s="165">
         <v>1</v>
       </c>
-      <c r="G4" s="166">
+      <c r="G4" s="165">
         <v>1</v>
       </c>
-      <c r="H4" s="166">
+      <c r="H4" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="D5" s="166">
-        <v>0</v>
-      </c>
-      <c r="E5" s="166">
+      <c r="D5" s="165">
+        <v>0</v>
+      </c>
+      <c r="E5" s="165">
         <v>35</v>
       </c>
-      <c r="F5" s="166">
+      <c r="F5" s="165">
         <v>1</v>
       </c>
-      <c r="G5" s="166">
+      <c r="G5" s="165">
         <v>1</v>
       </c>
-      <c r="H5" s="166">
+      <c r="H5" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="165" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" s="166">
-        <v>0</v>
-      </c>
-      <c r="E6" s="166">
-        <v>0</v>
-      </c>
-      <c r="F6" s="166">
+      <c r="C6" s="164" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="165">
+        <v>0</v>
+      </c>
+      <c r="E6" s="165">
+        <v>0</v>
+      </c>
+      <c r="F6" s="165">
         <v>1</v>
       </c>
-      <c r="G6" s="166">
+      <c r="G6" s="165">
         <v>1</v>
       </c>
-      <c r="H6" s="166">
+      <c r="H6" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="165" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="166">
-        <v>0</v>
-      </c>
-      <c r="E7" s="166">
+      <c r="C7" s="164" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="165">
+        <v>0</v>
+      </c>
+      <c r="E7" s="165">
         <v>35</v>
       </c>
-      <c r="F7" s="166">
+      <c r="F7" s="165">
         <v>1</v>
       </c>
-      <c r="G7" s="166">
+      <c r="G7" s="165">
         <v>1</v>
       </c>
-      <c r="H7" s="166">
+      <c r="H7" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="165" t="s">
-        <v>575</v>
-      </c>
-      <c r="D8" s="166">
-        <v>0</v>
-      </c>
-      <c r="E8" s="166">
-        <v>0</v>
-      </c>
-      <c r="F8" s="166">
+      <c r="C8" s="164" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="165">
+        <v>0</v>
+      </c>
+      <c r="E8" s="165">
+        <v>0</v>
+      </c>
+      <c r="F8" s="165">
         <v>1</v>
       </c>
-      <c r="G8" s="166">
+      <c r="G8" s="165">
         <v>1</v>
       </c>
-      <c r="H8" s="166">
+      <c r="H8" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="165" t="s">
-        <v>576</v>
-      </c>
-      <c r="D9" s="166">
-        <v>0</v>
-      </c>
-      <c r="E9" s="166">
+      <c r="C9" s="164" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" s="165">
+        <v>0</v>
+      </c>
+      <c r="E9" s="165">
         <v>35</v>
       </c>
-      <c r="F9" s="166">
+      <c r="F9" s="165">
         <v>1</v>
       </c>
-      <c r="G9" s="166">
+      <c r="G9" s="165">
         <v>1</v>
       </c>
-      <c r="H9" s="166">
+      <c r="H9" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="165" t="s">
-        <v>573</v>
-      </c>
-      <c r="D10" s="166">
-        <v>0</v>
-      </c>
-      <c r="E10" s="166">
-        <v>0</v>
-      </c>
-      <c r="F10" s="166">
+      <c r="C10" s="164" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="165">
+        <v>0</v>
+      </c>
+      <c r="E10" s="165">
+        <v>0</v>
+      </c>
+      <c r="F10" s="165">
         <v>1</v>
       </c>
-      <c r="G10" s="166">
+      <c r="G10" s="165">
         <v>1</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="165" t="s">
-        <v>574</v>
-      </c>
-      <c r="D11" s="166">
-        <v>0</v>
-      </c>
-      <c r="E11" s="166">
+      <c r="C11" s="164" t="s">
+        <v>572</v>
+      </c>
+      <c r="D11" s="165">
+        <v>0</v>
+      </c>
+      <c r="E11" s="165">
         <v>35</v>
       </c>
-      <c r="F11" s="166">
+      <c r="F11" s="165">
         <v>1</v>
       </c>
-      <c r="G11" s="166">
+      <c r="G11" s="165">
         <v>1</v>
       </c>
-      <c r="H11" s="166">
+      <c r="H11" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="165" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12" s="166">
-        <v>0</v>
-      </c>
-      <c r="E12" s="166">
-        <v>0</v>
-      </c>
-      <c r="F12" s="166">
+      <c r="C12" s="164" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" s="165">
+        <v>0</v>
+      </c>
+      <c r="E12" s="165">
+        <v>0</v>
+      </c>
+      <c r="F12" s="165">
         <v>1</v>
       </c>
-      <c r="G12" s="166">
+      <c r="G12" s="165">
         <v>1</v>
       </c>
-      <c r="H12" s="166">
+      <c r="H12" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="165" t="s">
-        <v>582</v>
-      </c>
-      <c r="D13" s="166">
-        <v>0</v>
-      </c>
-      <c r="E13" s="166">
+      <c r="C13" s="164" t="s">
+        <v>580</v>
+      </c>
+      <c r="D13" s="165">
+        <v>0</v>
+      </c>
+      <c r="E13" s="165">
         <v>35</v>
       </c>
-      <c r="F13" s="166">
+      <c r="F13" s="165">
         <v>1</v>
       </c>
-      <c r="G13" s="166">
+      <c r="G13" s="165">
         <v>1</v>
       </c>
-      <c r="H13" s="166">
+      <c r="H13" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D14" s="166">
-        <v>0</v>
-      </c>
-      <c r="E14" s="166">
-        <v>0</v>
-      </c>
-      <c r="F14" s="166">
+      <c r="D14" s="165">
+        <v>0</v>
+      </c>
+      <c r="E14" s="165">
+        <v>0</v>
+      </c>
+      <c r="F14" s="165">
         <v>0.67</v>
       </c>
-      <c r="G14" s="166">
+      <c r="G14" s="165">
         <v>0.67</v>
       </c>
-      <c r="H14" s="166">
+      <c r="H14" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="164" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="166">
-        <v>0</v>
-      </c>
-      <c r="E15" s="166">
+      <c r="D15" s="165">
+        <v>0</v>
+      </c>
+      <c r="E15" s="165">
         <v>35</v>
       </c>
-      <c r="F15" s="166">
+      <c r="F15" s="165">
         <v>1</v>
       </c>
-      <c r="G15" s="166">
+      <c r="G15" s="165">
         <v>1</v>
       </c>
-      <c r="H15" s="166">
+      <c r="H15" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="164" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="166">
-        <v>0</v>
-      </c>
-      <c r="E16" s="166">
+      <c r="D16" s="165">
+        <v>0</v>
+      </c>
+      <c r="E16" s="165">
         <v>35</v>
       </c>
-      <c r="F16" s="166">
+      <c r="F16" s="165">
         <v>1</v>
       </c>
-      <c r="G16" s="166">
+      <c r="G16" s="165">
         <v>1</v>
       </c>
-      <c r="H16" s="166">
+      <c r="H16" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="165" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="166">
-        <v>0</v>
-      </c>
-      <c r="E17" s="166">
-        <v>0</v>
-      </c>
-      <c r="F17" s="166">
+      <c r="C17" s="164" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" s="165">
+        <v>0</v>
+      </c>
+      <c r="E17" s="165">
+        <v>0</v>
+      </c>
+      <c r="F17" s="165">
         <v>1</v>
       </c>
-      <c r="G17" s="166">
+      <c r="G17" s="165">
         <v>1</v>
       </c>
-      <c r="H17" s="166">
+      <c r="H17" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="165" t="s">
-        <v>580</v>
-      </c>
-      <c r="D18" s="166">
-        <v>0</v>
-      </c>
-      <c r="E18" s="166">
+      <c r="C18" s="164" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" s="165">
+        <v>0</v>
+      </c>
+      <c r="E18" s="165">
         <v>35</v>
       </c>
-      <c r="F18" s="166">
+      <c r="F18" s="165">
         <v>1</v>
       </c>
-      <c r="G18" s="166">
+      <c r="G18" s="165">
         <v>1</v>
       </c>
-      <c r="H18" s="166">
+      <c r="H18" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="164" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="166">
-        <v>0</v>
-      </c>
-      <c r="E19" s="166">
-        <v>0</v>
-      </c>
-      <c r="F19" s="166">
+      <c r="D19" s="165">
+        <v>0</v>
+      </c>
+      <c r="E19" s="165">
+        <v>0</v>
+      </c>
+      <c r="F19" s="165">
         <v>1</v>
       </c>
-      <c r="G19" s="166">
+      <c r="G19" s="165">
         <v>1</v>
       </c>
-      <c r="H19" s="166">
+      <c r="H19" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="164" t="s">
         <v>440</v>
       </c>
-      <c r="D20" s="166">
-        <v>0</v>
-      </c>
-      <c r="E20" s="166">
+      <c r="D20" s="165">
+        <v>0</v>
+      </c>
+      <c r="E20" s="165">
         <v>35</v>
       </c>
-      <c r="F20" s="166">
+      <c r="F20" s="165">
         <v>1</v>
       </c>
-      <c r="G20" s="166">
+      <c r="G20" s="165">
         <v>1</v>
       </c>
-      <c r="H20" s="166">
+      <c r="H20" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="164" t="s">
         <v>441</v>
       </c>
-      <c r="D21" s="166">
-        <v>0</v>
-      </c>
-      <c r="E21" s="166">
-        <v>0</v>
-      </c>
-      <c r="F21" s="166">
+      <c r="D21" s="165">
+        <v>0</v>
+      </c>
+      <c r="E21" s="165">
+        <v>0</v>
+      </c>
+      <c r="F21" s="165">
         <v>1</v>
       </c>
-      <c r="G21" s="166">
+      <c r="G21" s="165">
         <v>1</v>
       </c>
-      <c r="H21" s="166">
+      <c r="H21" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="164" t="s">
         <v>442</v>
       </c>
-      <c r="D22" s="166">
-        <v>0</v>
-      </c>
-      <c r="E22" s="166">
+      <c r="D22" s="165">
+        <v>0</v>
+      </c>
+      <c r="E22" s="165">
         <v>35</v>
       </c>
-      <c r="F22" s="166">
+      <c r="F22" s="165">
         <v>1</v>
       </c>
-      <c r="G22" s="166">
+      <c r="G22" s="165">
         <v>1</v>
       </c>
-      <c r="H22" s="166">
+      <c r="H22" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="164" t="s">
         <v>443</v>
       </c>
-      <c r="D23" s="166">
-        <v>0</v>
-      </c>
-      <c r="E23" s="166">
-        <v>0</v>
-      </c>
-      <c r="F23" s="166">
+      <c r="D23" s="165">
+        <v>0</v>
+      </c>
+      <c r="E23" s="165">
+        <v>0</v>
+      </c>
+      <c r="F23" s="165">
         <v>1</v>
       </c>
-      <c r="G23" s="166">
+      <c r="G23" s="165">
         <v>1</v>
       </c>
-      <c r="H23" s="166">
+      <c r="H23" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="164" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="166">
-        <v>0</v>
-      </c>
-      <c r="E24" s="166">
+      <c r="D24" s="165">
+        <v>0</v>
+      </c>
+      <c r="E24" s="165">
         <v>35</v>
       </c>
-      <c r="F24" s="166">
+      <c r="F24" s="165">
         <v>1</v>
       </c>
-      <c r="G24" s="166">
+      <c r="G24" s="165">
         <v>1</v>
       </c>
-      <c r="H24" s="166">
+      <c r="H24" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="165" t="s">
-        <v>533</v>
-      </c>
-      <c r="D25" s="166">
-        <v>0</v>
-      </c>
-      <c r="E25" s="166">
+      <c r="C25" s="164" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="165">
+        <v>0</v>
+      </c>
+      <c r="E25" s="165">
         <v>2</v>
       </c>
-      <c r="F25" s="166">
+      <c r="F25" s="165">
         <v>1</v>
       </c>
-      <c r="G25" s="166">
+      <c r="G25" s="165">
         <v>1</v>
       </c>
-      <c r="H25" s="166">
+      <c r="H25" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="165" t="s">
-        <v>534</v>
-      </c>
-      <c r="D26" s="166">
-        <v>0</v>
-      </c>
-      <c r="E26" s="166">
+      <c r="C26" s="164" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" s="165">
+        <v>0</v>
+      </c>
+      <c r="E26" s="165">
         <v>35</v>
       </c>
-      <c r="F26" s="166">
+      <c r="F26" s="165">
         <v>1</v>
       </c>
-      <c r="G26" s="166">
+      <c r="G26" s="165">
         <v>1</v>
       </c>
-      <c r="H26" s="166">
+      <c r="H26" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="165" t="s">
-        <v>535</v>
-      </c>
-      <c r="D27" s="166">
-        <v>0</v>
-      </c>
-      <c r="E27" s="166">
+      <c r="C27" s="164" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="165">
+        <v>0</v>
+      </c>
+      <c r="E27" s="165">
         <v>2</v>
       </c>
-      <c r="F27" s="166">
+      <c r="F27" s="165">
         <v>1</v>
       </c>
-      <c r="G27" s="166">
+      <c r="G27" s="165">
         <v>1</v>
       </c>
-      <c r="H27" s="166">
+      <c r="H27" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="165" t="s">
-        <v>536</v>
-      </c>
-      <c r="D28" s="166">
-        <v>0</v>
-      </c>
-      <c r="E28" s="166">
+      <c r="C28" s="164" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="165">
+        <v>0</v>
+      </c>
+      <c r="E28" s="165">
         <v>35</v>
       </c>
-      <c r="F28" s="166">
+      <c r="F28" s="165">
         <v>1</v>
       </c>
-      <c r="G28" s="166">
+      <c r="G28" s="165">
         <v>1</v>
       </c>
-      <c r="H28" s="166">
+      <c r="H28" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="165" t="s">
-        <v>577</v>
-      </c>
-      <c r="D29" s="166">
-        <v>0</v>
-      </c>
-      <c r="E29" s="166">
+      <c r="C29" s="164" t="s">
+        <v>575</v>
+      </c>
+      <c r="D29" s="165">
+        <v>0</v>
+      </c>
+      <c r="E29" s="165">
         <v>2</v>
       </c>
-      <c r="F29" s="166">
+      <c r="F29" s="165">
         <v>1</v>
       </c>
-      <c r="G29" s="166">
+      <c r="G29" s="165">
         <v>1</v>
       </c>
-      <c r="H29" s="166">
+      <c r="H29" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="165" t="s">
-        <v>578</v>
-      </c>
-      <c r="D30" s="166">
-        <v>0</v>
-      </c>
-      <c r="E30" s="166">
+      <c r="C30" s="164" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="165">
+        <v>0</v>
+      </c>
+      <c r="E30" s="165">
         <v>35</v>
       </c>
-      <c r="F30" s="166">
+      <c r="F30" s="165">
         <v>1</v>
       </c>
-      <c r="G30" s="166">
+      <c r="G30" s="165">
         <v>1</v>
       </c>
-      <c r="H30" s="166">
+      <c r="H30" s="165">
         <v>4.71</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="165" t="s">
+      <c r="C31" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="166">
-        <v>0</v>
-      </c>
-      <c r="E31" s="166">
-        <v>0</v>
-      </c>
-      <c r="F31" s="166">
+      <c r="D31" s="165">
+        <v>0</v>
+      </c>
+      <c r="E31" s="165">
+        <v>0</v>
+      </c>
+      <c r="F31" s="165">
         <v>1</v>
       </c>
-      <c r="G31" s="166">
+      <c r="G31" s="165">
         <v>1</v>
       </c>
-      <c r="H31" s="166">
+      <c r="H31" s="165">
         <v>0</v>
       </c>
     </row>
@@ -19270,7 +19287,7 @@
         <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19522,10 +19539,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="A3:BI11"/>
+  <dimension ref="A3:BM11"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19552,20 +19569,22 @@
     <col min="30" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="32" width="12.7109375" customWidth="1"/>
     <col min="33" max="33" width="3.7109375" customWidth="1"/>
-    <col min="34" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="44" width="14.140625" customWidth="1"/>
-    <col min="45" max="46" width="16" customWidth="1"/>
-    <col min="47" max="60" width="12.7109375" customWidth="1"/>
+    <col min="34" max="35" width="12.7109375" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" customWidth="1"/>
+    <col min="37" max="39" width="12.7109375" customWidth="1"/>
+    <col min="40" max="48" width="14.140625" customWidth="1"/>
+    <col min="49" max="50" width="16" customWidth="1"/>
+    <col min="51" max="64" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="D3" s="244" t="s">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="D3" s="245" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="D4" s="67" t="s">
         <v>318</v>
       </c>
@@ -19574,13 +19593,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>COLUMN(A7)-1</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:BI7" si="0">COLUMN(B7)-1</f>
+        <f t="shared" ref="B7:BM7" si="0">COLUMN(B7)-1</f>
         <v>1</v>
       </c>
       <c r="C7">
@@ -19715,25 +19734,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="AS7">
         <f t="shared" si="0"/>
@@ -19751,165 +19754,189 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AW7" s="85">
+      <c r="AW7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AX7" s="85">
+      <c r="AX7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AY7" s="85">
+      <c r="AY7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AZ7" s="85">
+      <c r="AZ7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="84">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="84">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="84">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BI7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="BD7" s="84">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
-      <c r="C8" s="243" t="s">
+    <row r="8" spans="1:65" ht="135" x14ac:dyDescent="0.25">
+      <c r="B8" s="224"/>
+      <c r="C8" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="244" t="s">
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="246" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="243" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="244" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="243" t="s">
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243" t="s">
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243" t="s">
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244" t="s">
         <v>180</v>
       </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243" t="s">
+      <c r="S8" s="244"/>
+      <c r="T8" s="244"/>
+      <c r="U8" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243" t="s">
+      <c r="V8" s="244"/>
+      <c r="W8" s="244"/>
+      <c r="X8" s="244" t="s">
         <v>182</v>
       </c>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243" t="s">
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
-      <c r="AD8" s="243" t="s">
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="243"/>
-      <c r="AG8" s="243" t="s">
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="AH8" s="243"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="108" t="s">
+      <c r="AH8" s="244"/>
+      <c r="AI8" s="244"/>
+      <c r="AJ8" s="244" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK8" s="244"/>
+      <c r="AL8" s="244"/>
+      <c r="AM8" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="AK8" s="88" t="s">
+      <c r="AN8" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="AL8" s="88" t="s">
+      <c r="AO8" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="AM8" s="88" t="s">
+      <c r="AP8" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="AN8" s="88" t="s">
+      <c r="AQ8" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="AO8" s="91" t="s">
+      <c r="AR8" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="AS8" s="90" t="s">
         <v>386</v>
       </c>
-      <c r="AP8" s="91" t="s">
+      <c r="AT8" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="AQ8" s="91" t="s">
+      <c r="AU8" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="AR8" s="94" t="s">
+      <c r="AV8" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="AS8" s="88" t="s">
+      <c r="AW8" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="AT8" s="88" t="s">
+      <c r="AX8" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="AU8" s="86" t="s">
+      <c r="AY8" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="AV8" s="87" t="s">
+      <c r="AZ8" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="AW8" s="102" t="s">
+      <c r="BA8" s="101" t="s">
         <v>395</v>
       </c>
-      <c r="AX8" s="102" t="s">
+      <c r="BB8" s="101" t="s">
         <v>396</v>
       </c>
-      <c r="AY8" s="94" t="s">
+      <c r="BC8" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="AZ8" s="101" t="s">
+      <c r="BD8" s="100" t="s">
         <v>394</v>
       </c>
-      <c r="BA8" s="86" t="s">
+      <c r="BE8" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="BB8" s="86" t="s">
+      <c r="BF8" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="BC8" s="86" t="s">
+      <c r="BG8" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="BD8" s="86" t="s">
+      <c r="BH8" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
+      <c r="BI8" s="70"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>165</v>
@@ -19917,7 +19944,7 @@
       <c r="D9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="95" t="s">
         <v>164</v>
       </c>
       <c r="F9" s="51" t="s">
@@ -19935,7 +19962,7 @@
       <c r="J9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="95" t="s">
         <v>164</v>
       </c>
       <c r="L9" s="51" t="s">
@@ -19944,7 +19971,7 @@
       <c r="M9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="95" t="s">
         <v>164</v>
       </c>
       <c r="O9" s="51" t="s">
@@ -19962,7 +19989,7 @@
       <c r="S9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="96" t="s">
+      <c r="T9" s="95" t="s">
         <v>164</v>
       </c>
       <c r="U9" s="51" t="s">
@@ -20007,59 +20034,69 @@
       <c r="AH9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="AI9" s="96" t="s">
+      <c r="AI9" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="AJ9" s="52" t="s">
+      <c r="AJ9" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
+      <c r="AL9" s="223" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM9" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="AN9" s="72"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="92"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="70"/>
-      <c r="BF9" s="70"/>
-      <c r="BG9" s="70"/>
-      <c r="BH9" s="70"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="55"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="70"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
-      <c r="E10" s="96"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="51"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="96"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="51"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="96"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="51"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="51"/>
       <c r="S10" s="52"/>
-      <c r="T10" s="96"/>
+      <c r="T10" s="95"/>
       <c r="U10" s="51"/>
       <c r="V10" s="52"/>
       <c r="W10" s="53"/>
@@ -20074,34 +20111,38 @@
       <c r="AF10" s="53"/>
       <c r="AG10" s="51"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="223"/>
+      <c r="AM10" s="52"/>
       <c r="AN10" s="73"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="55"/>
-      <c r="BB10" s="55"/>
-      <c r="BC10" s="55"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="70"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="55"/>
+      <c r="BF10" s="55"/>
+      <c r="BG10" s="55"/>
+      <c r="BH10" s="55"/>
+      <c r="BI10" s="70"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>161</v>
       </c>
@@ -20109,7 +20150,7 @@
         <v>169</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="96"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="54" t="s">
         <v>321</v>
       </c>
@@ -20119,12 +20160,12 @@
         <v>322</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="96"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="54" t="s">
         <v>323</v>
       </c>
       <c r="M11" s="52"/>
-      <c r="N11" s="96"/>
+      <c r="N11" s="95"/>
       <c r="O11" s="54" t="s">
         <v>168</v>
       </c>
@@ -20134,7 +20175,7 @@
         <v>325</v>
       </c>
       <c r="S11" s="52"/>
-      <c r="T11" s="96"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="54" t="s">
         <v>170</v>
       </c>
@@ -20159,99 +20200,109 @@
         <v>380</v>
       </c>
       <c r="AH11" s="52"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="52" t="s">
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="223"/>
+      <c r="AM11" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="AK11" s="72" t="str">
+      <c r="AN11" s="72" t="str">
         <f>J11&amp;"-"&amp;M11&amp;"-"&amp;S11</f>
         <v>--</v>
       </c>
-      <c r="AL11" s="72">
+      <c r="AO11" s="72">
         <f>IF(S11="XPS",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="72">
+      <c r="AP11" s="72">
         <f>IF(S11="XT",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="72">
+      <c r="AQ11" s="72">
         <f>IF(S11="Вкл",1,0)</f>
         <v>0</v>
       </c>
-      <c r="AO11" s="92">
-        <f>IFERROR(IF(SUM(AL11:AN11)&gt;0,0,IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0)),-1)</f>
+      <c r="AR11" s="72">
+        <f>IF(AK11="",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="91">
+        <f>IFERROR(IF(AR11=1,0,IF(SUM(AO11:AQ11)&gt;0,0,IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0))),-1)</f>
         <v>-1</v>
       </c>
-      <c r="AP11" s="92" t="str">
-        <f>IF(AO11=-1,IF(SUM(AL11:AN11)&gt;0,INDEX($AP$11:AP11,COUNT($AU$11:AU11)-1),"-1"),IF(AO11=1,J11,INDEX($AP$11:AP11,COUNT($AU$11:AU11)-1)))</f>
+      <c r="AT11" s="91" t="str">
+        <f>IF(AS11=-1,IF(SUM(AO11:AQ11)&gt;0,INDEX($AT$11:AT11,COUNT($AY$11:AY11)-1),"-1"),IF(AS11=1,J11,INDEX($AT$11:AT11,COUNT($AY$11:AY11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AQ11" s="92">
-        <f>IF(AO11=-1,-1,IF(AO11=1,M11,INDEX($AQ$11:AQ11,COUNT($AU$11:AU11)-1)))</f>
+      <c r="AU11" s="91">
+        <f>IF(AS11=-1,-1,IF(AS11=1,M11,INDEX($AU$11:AU11,COUNT($AY$11:AY11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AR11" s="92" t="str">
-        <f>IF(AP11="-1","-1",IF(AP11&lt;&gt;J11,1,0))</f>
+      <c r="AV11" s="91" t="str">
+        <f>IF(AT11="-1","-1",IF(AT11&lt;&gt;J11,1,0))</f>
         <v>-1</v>
       </c>
-      <c r="AS11" s="72">
-        <f>IF(COUNT($AU$11:AU11)=MATCH(AK11,$AK$11:AK11,0),1,0)</f>
+      <c r="AW11" s="72">
+        <f>IF(COUNT($AY$11:AY11)=MATCH(AN11,$AN$11:AN11,0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="72">
-        <f>SUMIFS($AU$11:$AU$700000,$AK$11:$AK$700000,AK11)</f>
+      <c r="AX11" s="72">
+        <f>SUMIFS($AY$11:$AY$700000,$AN$11:$AN$700000,AN11)</f>
         <v>1</v>
       </c>
-      <c r="AU11" s="55">
+      <c r="AY11" s="55">
         <v>1</v>
       </c>
-      <c r="AV11" s="69" t="str">
+      <c r="AZ11" s="69" t="str">
         <f>$F$4</f>
         <v>-</v>
       </c>
-      <c r="AW11" s="84">
-        <f>IF(AV11=AP11,IF(AS11=1,IF(SUM(AL11:AN11)&gt;0,0,1),0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AX11" s="84">
-        <f>IF(AV11=D11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY11" s="92">
-        <f>SUMIF(J11:$J$700000,D11,AU11:$AU$700000)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="92" t="str">
-        <f>IF(AO11=-1,"0",1+INDEX($AZ$11:$AZ$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="BA11" s="55">
-        <f>SUMIFS($AU$11:$AU$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
-        <v>0</v>
-      </c>
-      <c r="BB11" s="55">
-        <f>IF(SUMIFS($AU$11:AU11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="55">
-        <f>IF(BB11=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BD11" s="55">
+      <c r="BA11" s="83">
+        <f>IF(AZ11=AT11,IF(AW11=1,IF(AR11=1,0,IF(SUM(AO11:AQ11)&gt;0,0,1)),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="83">
+        <f>IF(AZ11=D11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="91">
+        <f>SUMIF(J11:$J$700000,D11,AY11:$AY$700000)</f>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="91" t="str">
+        <f>IF(AS11=-1,"0",1+INDEX($BD$11:$BD$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="55">
+        <f>SUMIFS($AY$11:$AY$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="55">
+        <f>IF(SUMIFS($AY$11:AY11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="55">
+        <f>IF(BF11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="55">
         <f>M11</f>
         <v>0</v>
       </c>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="70"/>
-      <c r="BG11" s="70"/>
-      <c r="BH11" s="70"/>
-      <c r="BI11" t="s">
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="AG8:AI8"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="AA8:AC8"/>
